--- a/Jogos_do_Dia/2024-04-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -172,12 +172,12 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Romania Liga I</t>
+  </si>
+  <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Bulgaria First League</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Switzerland Super League</t>
   </si>
   <si>
+    <t>Serbia SuperLiga</t>
+  </si>
+  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Serbia SuperLiga</t>
-  </si>
-  <si>
     <t>Czech Republic First League</t>
   </si>
   <si>
@@ -331,18 +331,18 @@
     <t>Brest</t>
   </si>
   <si>
+    <t>Osnabrück</t>
+  </si>
+  <si>
     <t>Fortuna Düsseldorf</t>
   </si>
   <si>
-    <t>Osnabrück</t>
+    <t>Hermannstadt</t>
   </si>
   <si>
     <t>Union Saint-Gilloise</t>
   </si>
   <si>
-    <t>Hermannstadt</t>
-  </si>
-  <si>
     <t>Hannover 96</t>
   </si>
   <si>
@@ -361,6 +361,12 @@
     <t>Luzern</t>
   </si>
   <si>
+    <t>Radnički Kragujevac</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
     <t>Austria Klagenfurt</t>
   </si>
   <si>
@@ -370,54 +376,48 @@
     <t>Feyenoord</t>
   </si>
   <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Radnički Kragujevac</t>
+    <t>Teplice</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Jablonec</t>
   </si>
   <si>
     <t>Pardubice</t>
   </si>
   <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Jablonec</t>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Teplice</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Lech Poznań</t>
-  </si>
-  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
+    <t>AS Eupen</t>
+  </si>
+  <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
     <t>Nordsjælland</t>
   </si>
   <si>
-    <t>Radnik Surdulica</t>
-  </si>
-  <si>
-    <t>AS Eupen</t>
-  </si>
-  <si>
     <t>Lamia</t>
   </si>
   <si>
@@ -433,48 +433,48 @@
     <t>Yverdon Sport</t>
   </si>
   <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
+    <t>Torreense</t>
+  </si>
+  <si>
     <t>Manchester United</t>
   </si>
   <si>
-    <t>Torreense</t>
-  </si>
-  <si>
     <t>GD Chaves</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
-    <t>St. Gallen</t>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
   </si>
   <si>
     <t>Volendam</t>
   </si>
   <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>Botev Plovdiv</t>
+    <t>Salzburg</t>
   </si>
   <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
-    <t>Salzburg</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
+    <t>Legia Warszawa</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
     <t>DAC</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Legia Warszawa</t>
-  </si>
-  <si>
     <t>Hellas Verona</t>
   </si>
   <si>
@@ -487,51 +487,51 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>CD Tenerife</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
     <t>RCD Espanyol</t>
   </si>
   <si>
-    <t>CD Tenerife</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>UD Oliveirense</t>
   </si>
   <si>
     <t>Moreirense FC</t>
   </si>
   <si>
-    <t>UD Oliveirense</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
+    <t>OFK Pirin</t>
   </si>
   <si>
     <t>KVC Westerlo</t>
   </si>
   <si>
-    <t>OFK Pirin</t>
+    <t>FCSB</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
   </si>
   <si>
     <t>Rijeka</t>
   </si>
   <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
-    <t>FCSB</t>
+    <t>Heerenveen</t>
   </si>
   <si>
     <t>Partizan</t>
   </si>
   <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
@@ -568,18 +568,18 @@
     <t>Metz</t>
   </si>
   <si>
+    <t>Greuther Fürth</t>
+  </si>
+  <si>
     <t>Eintracht Braunschweig</t>
   </si>
   <si>
-    <t>Greuther Fürth</t>
+    <t>Universitatea Cluj</t>
   </si>
   <si>
     <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Universitatea Cluj</t>
-  </si>
-  <si>
     <t>Schalke 04</t>
   </si>
   <si>
@@ -598,6 +598,12 @@
     <t>Lausanne Sport</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
     <t>Hartberg</t>
   </si>
   <si>
@@ -607,54 +613,48 @@
     <t>Ajax</t>
   </si>
   <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Spartak Subotica</t>
+    <t>Hradec Králové</t>
+  </si>
+  <si>
+    <t>Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
   </si>
   <si>
     <t>České Budějovice</t>
   </si>
   <si>
-    <t>Paços de Ferreira</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Baník Ostrava</t>
+    <t>Domžale</t>
+  </si>
+  <si>
+    <t>Pogoń Szczecin</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Hradec Králové</t>
-  </si>
-  <si>
-    <t>Domžale</t>
-  </si>
-  <si>
-    <t>Pogoń Szczecin</t>
-  </si>
-  <si>
     <t>Augsburg</t>
   </si>
   <si>
+    <t>KV Kortrijk</t>
+  </si>
+  <si>
+    <t>Red Star Belgrade</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
-    <t>Red Star Belgrade</t>
-  </si>
-  <si>
-    <t>KV Kortrijk</t>
-  </si>
-  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
@@ -670,48 +670,48 @@
     <t>Grasshopper</t>
   </si>
   <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Voždovac</t>
-  </si>
-  <si>
-    <t>Young Boys</t>
+    <t>CSKA 1948 Sofia</t>
+  </si>
+  <si>
+    <t>VVV</t>
   </si>
   <si>
     <t>RKC Waalwijk</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Rapid Wien</t>
   </si>
   <si>
     <t>Istra 1961</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t>Borussia M'gladbach</t>
+  </si>
+  <si>
     <t>Podbrezová</t>
   </si>
   <si>
-    <t>Borussia M'gladbach</t>
-  </si>
-  <si>
-    <t>Jagiellonia Białystok</t>
-  </si>
-  <si>
     <t>Genoa</t>
   </si>
   <si>
@@ -724,49 +724,49 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>RSC Anderlecht</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
     <t>Chelsea</t>
   </si>
   <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
-    <t>SD Eibar</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>RSC Anderlecht</t>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Benfica II</t>
   </si>
   <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
-    <t>Benfica II</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
+    <t>Ludogorets</t>
   </si>
   <si>
     <t>KAA Gent</t>
   </si>
   <si>
-    <t>Ludogorets</t>
+    <t>CS U Craiova</t>
+  </si>
+  <si>
+    <t>PAOK</t>
   </si>
   <si>
     <t>Hajduk Split</t>
   </si>
   <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>CS U Craiova</t>
+    <t>Utrecht</t>
   </si>
   <si>
     <t>Novi Pazar</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
   </si>
   <si>
     <t>Olympique Lyonnais</t>
@@ -1297,10 +1297,10 @@
         <v>176</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I2">
         <v>3.4</v>
@@ -1333,16 +1333,16 @@
         <v>2.9</v>
       </c>
       <c r="S2">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="T2">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>1.36</v>
@@ -1369,13 +1369,13 @@
         <v>3</v>
       </c>
       <c r="AE2">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AF2">
         <v>8.9</v>
       </c>
       <c r="AG2">
-        <v>2.43</v>
+        <v>2.51</v>
       </c>
       <c r="AH2">
         <v>1.22</v>
@@ -1390,7 +1390,7 @@
         <v>2.6</v>
       </c>
       <c r="AL2">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="AM2">
         <v>2</v>
@@ -1437,13 +1437,13 @@
         <v>3.23</v>
       </c>
       <c r="J3">
-        <v>2.59</v>
+        <v>2.8</v>
       </c>
       <c r="K3">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="L3">
-        <v>2.26</v>
+        <v>2.55</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1464,10 +1464,10 @@
         <v>3.28</v>
       </c>
       <c r="S3">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1568,13 +1568,13 @@
         <v>2.75</v>
       </c>
       <c r="J4">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="K4">
-        <v>3.63</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M4">
         <v>1.33</v>
@@ -1595,10 +1595,10 @@
         <v>3.8</v>
       </c>
       <c r="S4">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="T4">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="U4">
         <v>1.57</v>
@@ -1777,22 +1777,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>3.48</v>
       </c>
       <c r="J6">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="K6">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="L6">
         <v>2.63</v>
@@ -1857,10 +1857,10 @@
         <v>2.7</v>
       </c>
       <c r="S6">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T6">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U6">
         <v>1.93</v>
@@ -1961,13 +1961,13 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>3.62</v>
+        <v>3.85</v>
       </c>
       <c r="K7">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1988,10 +1988,10 @@
         <v>3.65</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -2092,13 +2092,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="K8">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="L8">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="M8">
         <v>1.3</v>
@@ -2119,7 +2119,7 @@
         <v>4.25</v>
       </c>
       <c r="S8">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T8">
         <v>2.15</v>
@@ -2164,10 +2164,10 @@
         <v>2.16</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ8">
         <v>1.17</v>
@@ -2223,13 +2223,13 @@
         <v>6.5</v>
       </c>
       <c r="J9">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K9">
-        <v>3.77</v>
+        <v>4.05</v>
       </c>
       <c r="L9">
-        <v>6.25</v>
+        <v>6.3</v>
       </c>
       <c r="M9">
         <v>1.44</v>
@@ -2250,10 +2250,10 @@
         <v>2.95</v>
       </c>
       <c r="S9">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T9">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U9">
         <v>2.2</v>
@@ -2345,115 +2345,115 @@
         <v>184</v>
       </c>
       <c r="G10">
-        <v>2.15</v>
+        <v>3.52</v>
       </c>
       <c r="H10">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="I10">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J10">
+        <v>2.78</v>
+      </c>
+      <c r="K10">
+        <v>3.7</v>
+      </c>
+      <c r="L10">
+        <v>2.38</v>
+      </c>
+      <c r="M10">
+        <v>1.32</v>
+      </c>
+      <c r="N10">
+        <v>3.22</v>
+      </c>
+      <c r="O10">
+        <v>1.04</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>1.22</v>
+      </c>
+      <c r="R10">
+        <v>4.35</v>
+      </c>
+      <c r="S10">
         <v>1.65</v>
       </c>
-      <c r="K10">
-        <v>4.17</v>
-      </c>
-      <c r="L10">
-        <v>4.68</v>
-      </c>
-      <c r="M10">
+      <c r="T10">
+        <v>2.23</v>
+      </c>
+      <c r="U10">
+        <v>1.58</v>
+      </c>
+      <c r="V10">
+        <v>2.34</v>
+      </c>
+      <c r="W10">
+        <v>1.62</v>
+      </c>
+      <c r="X10">
         <v>1.3</v>
       </c>
-      <c r="N10">
-        <v>3.25</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>17</v>
-      </c>
-      <c r="Q10">
-        <v>1.2</v>
-      </c>
-      <c r="R10">
-        <v>4.33</v>
-      </c>
-      <c r="S10">
-        <v>1.57</v>
-      </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.65</v>
-      </c>
-      <c r="V10">
-        <v>2.15</v>
-      </c>
-      <c r="W10">
-        <v>1.15</v>
-      </c>
-      <c r="X10">
-        <v>1.18</v>
-      </c>
       <c r="Y10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="Z10">
-        <v>1.62</v>
+        <v>0.85</v>
       </c>
       <c r="AA10">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB10">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="AC10">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AD10">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="AE10">
-        <v>1.55</v>
+        <v>2.53</v>
       </c>
       <c r="AF10">
         <v>8.5</v>
       </c>
       <c r="AG10">
-        <v>3.01</v>
+        <v>1.69</v>
       </c>
       <c r="AH10">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AI10">
-        <v>4.55</v>
+        <v>4.72</v>
       </c>
       <c r="AJ10">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AK10">
-        <v>2.55</v>
+        <v>3.12</v>
       </c>
       <c r="AL10">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AN10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AO10">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AP10">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="AQ10">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2476,115 +2476,115 @@
         <v>185</v>
       </c>
       <c r="G11">
-        <v>3.52</v>
+        <v>2.15</v>
       </c>
       <c r="H11">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="I11">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="K11">
-        <v>3.72</v>
+        <v>4.4</v>
       </c>
       <c r="L11">
-        <v>2.46</v>
+        <v>4.85</v>
       </c>
       <c r="M11">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q11">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R11">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="S11">
+        <v>1.6</v>
+      </c>
+      <c r="T11">
+        <v>2.33</v>
+      </c>
+      <c r="U11">
+        <v>1.65</v>
+      </c>
+      <c r="V11">
+        <v>2.15</v>
+      </c>
+      <c r="W11">
+        <v>1.15</v>
+      </c>
+      <c r="X11">
+        <v>1.18</v>
+      </c>
+      <c r="Y11">
+        <v>2.15</v>
+      </c>
+      <c r="Z11">
+        <v>1.62</v>
+      </c>
+      <c r="AA11">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>1.69</v>
+      </c>
+      <c r="AC11">
+        <v>1.1</v>
+      </c>
+      <c r="AD11">
+        <v>2.79</v>
+      </c>
+      <c r="AE11">
         <v>1.55</v>
-      </c>
-      <c r="T11">
-        <v>2.29</v>
-      </c>
-      <c r="U11">
-        <v>1.58</v>
-      </c>
-      <c r="V11">
-        <v>2.34</v>
-      </c>
-      <c r="W11">
-        <v>1.62</v>
-      </c>
-      <c r="X11">
-        <v>1.3</v>
-      </c>
-      <c r="Y11">
-        <v>1.4</v>
-      </c>
-      <c r="Z11">
-        <v>0.85</v>
-      </c>
-      <c r="AA11">
-        <v>0.92</v>
-      </c>
-      <c r="AB11">
-        <v>1.42</v>
-      </c>
-      <c r="AC11">
-        <v>1.28</v>
-      </c>
-      <c r="AD11">
-        <v>2.7</v>
-      </c>
-      <c r="AE11">
-        <v>2.53</v>
       </c>
       <c r="AF11">
         <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>1.69</v>
+        <v>3.01</v>
       </c>
       <c r="AH11">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AI11">
-        <v>4.72</v>
+        <v>4.55</v>
       </c>
       <c r="AJ11">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AK11">
-        <v>3.12</v>
+        <v>2.55</v>
       </c>
       <c r="AL11">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AM11">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AO11">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AP11">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="AQ11">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2598,7 +2598,7 @@
         <v>74</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>107</v>
@@ -2607,115 +2607,115 @@
         <v>186</v>
       </c>
       <c r="G12">
-        <v>2.25</v>
+        <v>3.12</v>
       </c>
       <c r="H12">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J12">
-        <v>1.84</v>
+        <v>2.32</v>
       </c>
       <c r="K12">
-        <v>3.73</v>
+        <v>2.9</v>
       </c>
       <c r="L12">
-        <v>4.03</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
+        <v>1.59</v>
+      </c>
+      <c r="N12">
+        <v>2.27</v>
+      </c>
+      <c r="O12">
+        <v>1.08</v>
+      </c>
+      <c r="P12">
+        <v>5.95</v>
+      </c>
+      <c r="Q12">
+        <v>1.54</v>
+      </c>
+      <c r="R12">
+        <v>2.43</v>
+      </c>
+      <c r="S12">
+        <v>2.53</v>
+      </c>
+      <c r="T12">
+        <v>1.36</v>
+      </c>
+      <c r="U12">
+        <v>2.11</v>
+      </c>
+      <c r="V12">
+        <v>1.65</v>
+      </c>
+      <c r="W12">
         <v>1.33</v>
       </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>1.05</v>
-      </c>
-      <c r="P12">
-        <v>9.5</v>
-      </c>
-      <c r="Q12">
-        <v>1.25</v>
-      </c>
-      <c r="R12">
-        <v>3.85</v>
-      </c>
-      <c r="S12">
-        <v>1.75</v>
-      </c>
-      <c r="T12">
-        <v>1.96</v>
-      </c>
-      <c r="U12">
-        <v>1.67</v>
-      </c>
-      <c r="V12">
-        <v>2.05</v>
-      </c>
-      <c r="W12">
-        <v>1.18</v>
-      </c>
       <c r="X12">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="Y12">
-        <v>2.05</v>
+        <v>1.54</v>
       </c>
       <c r="Z12">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="AA12">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AB12">
-        <v>1.89</v>
+        <v>1.59</v>
       </c>
       <c r="AC12">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AD12">
-        <v>3.54</v>
+        <v>2.87</v>
       </c>
       <c r="AE12">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AF12">
         <v>7.5</v>
       </c>
       <c r="AG12">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="AH12">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AI12">
-        <v>3.41</v>
+        <v>2.84</v>
       </c>
       <c r="AJ12">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AK12">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="AL12">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="AM12">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AN12">
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="AO12">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AP12">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="AQ12">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2729,7 +2729,7 @@
         <v>74</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>108</v>
@@ -2738,115 +2738,115 @@
         <v>187</v>
       </c>
       <c r="G13">
-        <v>3.12</v>
+        <v>2.25</v>
       </c>
       <c r="H13">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="K13">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="L13">
-        <v>2.85</v>
+        <v>3.85</v>
       </c>
       <c r="M13">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="N13">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P13">
-        <v>5.95</v>
+        <v>9.5</v>
       </c>
       <c r="Q13">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="R13">
+        <v>3.85</v>
+      </c>
+      <c r="S13">
+        <v>1.83</v>
+      </c>
+      <c r="T13">
+        <v>1.98</v>
+      </c>
+      <c r="U13">
+        <v>1.67</v>
+      </c>
+      <c r="V13">
+        <v>2.05</v>
+      </c>
+      <c r="W13">
+        <v>1.18</v>
+      </c>
+      <c r="X13">
+        <v>1.22</v>
+      </c>
+      <c r="Y13">
+        <v>2.05</v>
+      </c>
+      <c r="Z13">
         <v>2.4</v>
       </c>
-      <c r="S13">
-        <v>2.55</v>
-      </c>
-      <c r="T13">
-        <v>1.45</v>
-      </c>
-      <c r="U13">
-        <v>2.11</v>
-      </c>
-      <c r="V13">
+      <c r="AA13">
+        <v>1.4</v>
+      </c>
+      <c r="AB13">
+        <v>1.89</v>
+      </c>
+      <c r="AC13">
         <v>1.65</v>
       </c>
-      <c r="W13">
-        <v>1.33</v>
-      </c>
-      <c r="X13">
-        <v>1.38</v>
-      </c>
-      <c r="Y13">
-        <v>1.54</v>
-      </c>
-      <c r="Z13">
-        <v>2.06</v>
-      </c>
-      <c r="AA13">
-        <v>1.53</v>
-      </c>
-      <c r="AB13">
-        <v>1.59</v>
-      </c>
-      <c r="AC13">
-        <v>1.28</v>
-      </c>
       <c r="AD13">
-        <v>2.87</v>
+        <v>3.54</v>
       </c>
       <c r="AE13">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AF13">
         <v>7.5</v>
       </c>
       <c r="AG13">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="AH13">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AI13">
-        <v>2.84</v>
+        <v>3.41</v>
       </c>
       <c r="AJ13">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AK13">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="AL13">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="AM13">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AN13">
-        <v>2.79</v>
+        <v>2.48</v>
       </c>
       <c r="AO13">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AP13">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="AQ13">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2878,13 +2878,13 @@
         <v>3.92</v>
       </c>
       <c r="J14">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M14">
         <v>1.3</v>
@@ -2908,7 +2908,7 @@
         <v>1.58</v>
       </c>
       <c r="T14">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="U14">
         <v>1.57</v>
@@ -3009,13 +3009,13 @@
         <v>3.4</v>
       </c>
       <c r="J15">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="L15">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="M15">
         <v>1.54</v>
@@ -3036,10 +3036,10 @@
         <v>2.32</v>
       </c>
       <c r="S15">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="T15">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3140,13 +3140,13 @@
         <v>4.33</v>
       </c>
       <c r="J16">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="K16">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="L16">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
         <v>1.75</v>
@@ -3161,10 +3161,10 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S16">
         <v>3.03</v>
@@ -3271,13 +3271,13 @@
         <v>2.38</v>
       </c>
       <c r="J17">
-        <v>4.58</v>
+        <v>3.85</v>
       </c>
       <c r="K17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="M17">
         <v>1.33</v>
@@ -3301,7 +3301,7 @@
         <v>1.81</v>
       </c>
       <c r="T17">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>1.7</v>
@@ -3402,13 +3402,13 @@
         <v>3.2</v>
       </c>
       <c r="J18">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="K18">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="M18">
         <v>1.44</v>
@@ -3429,10 +3429,10 @@
         <v>3.1</v>
       </c>
       <c r="S18">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="T18">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -3533,13 +3533,13 @@
         <v>3.7</v>
       </c>
       <c r="J19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>3.61</v>
+        <v>3.85</v>
       </c>
       <c r="L19">
-        <v>3.34</v>
+        <v>3.45</v>
       </c>
       <c r="M19">
         <v>1.3</v>
@@ -3554,16 +3554,16 @@
         <v>17</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R19">
         <v>4.72</v>
       </c>
       <c r="S19">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T19">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="U19">
         <v>1.53</v>
@@ -3572,10 +3572,10 @@
         <v>2.38</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Y19">
         <v>1.78</v>
@@ -3646,7 +3646,7 @@
         <v>78</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>115</v>
@@ -3655,120 +3655,120 @@
         <v>194</v>
       </c>
       <c r="G20">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
         <v>2.1</v>
       </c>
       <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1.95</v>
+      </c>
+      <c r="K20">
+        <v>3.22</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>1.38</v>
+      </c>
+      <c r="N20">
+        <v>2.8</v>
+      </c>
+      <c r="O20">
+        <v>1.05</v>
+      </c>
+      <c r="P20">
+        <v>8.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.28</v>
+      </c>
+      <c r="R20">
         <v>3.4</v>
       </c>
-      <c r="J20">
-        <v>2.34</v>
-      </c>
-      <c r="K20">
-        <v>3.4</v>
-      </c>
-      <c r="L20">
-        <v>2.44</v>
-      </c>
-      <c r="M20">
-        <v>1.44</v>
-      </c>
-      <c r="N20">
-        <v>2.63</v>
-      </c>
-      <c r="O20">
-        <v>1.07</v>
-      </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <v>1.36</v>
-      </c>
-      <c r="R20">
-        <v>3.1</v>
-      </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V20">
         <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="X20">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y20">
+        <v>1.83</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>1.14</v>
+      </c>
+      <c r="AB20">
         <v>1.5</v>
       </c>
-      <c r="Z20">
-        <v>1.25</v>
-      </c>
-      <c r="AA20">
-        <v>1.25</v>
-      </c>
-      <c r="AB20">
-        <v>1.25</v>
-      </c>
       <c r="AC20">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AD20">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="AE20">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AF20">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG20">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="AH20">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AI20">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="AJ20">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AK20">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="AL20">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="AM20">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AN20">
-        <v>2.47</v>
+        <v>2.98</v>
       </c>
       <c r="AO20">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="AP20">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AQ20">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>45389</v>
@@ -3777,7 +3777,7 @@
         <v>78</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
         <v>116</v>
@@ -3786,120 +3786,120 @@
         <v>195</v>
       </c>
       <c r="G21">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I21">
+        <v>4.5</v>
+      </c>
+      <c r="J21">
+        <v>1.7</v>
+      </c>
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="J21">
-        <v>1.87</v>
-      </c>
-      <c r="K21">
-        <v>3.41</v>
-      </c>
       <c r="L21">
-        <v>3.31</v>
+        <v>4.7</v>
       </c>
       <c r="M21">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="N21">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="O21">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P21">
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="R21">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T21">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="U21">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V21">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W21">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X21">
         <v>1.25</v>
       </c>
       <c r="Y21">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AA21">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AB21">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="AC21">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AD21">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="AE21">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="AF21">
         <v>8.5</v>
       </c>
       <c r="AG21">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="AH21">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AI21">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="AJ21">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AK21">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AL21">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AM21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AO21">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="AP21">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
         <v>45389</v>
@@ -3908,7 +3908,7 @@
         <v>78</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>117</v>
@@ -3917,120 +3917,120 @@
         <v>196</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="H22">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I22">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J22">
-        <v>1.61</v>
+        <v>2.55</v>
       </c>
       <c r="K22">
-        <v>4.03</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="M22">
+        <v>1.44</v>
+      </c>
+      <c r="N22">
+        <v>2.63</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>1.36</v>
+      </c>
+      <c r="R22">
+        <v>3.1</v>
+      </c>
+      <c r="S22">
+        <v>2.04</v>
+      </c>
+      <c r="T22">
+        <v>1.82</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>1.28</v>
+      </c>
+      <c r="Y22">
+        <v>1.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.25</v>
+      </c>
+      <c r="AA22">
+        <v>1.25</v>
+      </c>
+      <c r="AB22">
+        <v>1.25</v>
+      </c>
+      <c r="AC22">
         <v>1.29</v>
       </c>
-      <c r="N22">
-        <v>3.5</v>
-      </c>
-      <c r="O22">
-        <v>1.02</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>1.18</v>
-      </c>
-      <c r="R22">
-        <v>4.33</v>
-      </c>
-      <c r="S22">
-        <v>1.57</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.75</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>1.15</v>
-      </c>
-      <c r="X22">
-        <v>1.2</v>
-      </c>
-      <c r="Y22">
-        <v>2.5</v>
-      </c>
-      <c r="Z22">
-        <v>2.36</v>
-      </c>
-      <c r="AA22">
-        <v>1.36</v>
-      </c>
-      <c r="AB22">
-        <v>2.4</v>
-      </c>
-      <c r="AC22">
-        <v>1.73</v>
-      </c>
       <c r="AD22">
-        <v>4.13</v>
+        <v>2.54</v>
       </c>
       <c r="AE22">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="AF22">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG22">
-        <v>3.65</v>
+        <v>2.1</v>
       </c>
       <c r="AH22">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AI22">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="AJ22">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AK22">
-        <v>2.6</v>
+        <v>2.13</v>
       </c>
       <c r="AL22">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="AM22">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AN22">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="AO22">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AP22">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="AQ22">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2">
         <v>45389</v>
@@ -4039,7 +4039,7 @@
         <v>78</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>118</v>
@@ -4048,120 +4048,120 @@
         <v>197</v>
       </c>
       <c r="G23">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I23">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="K23">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L23">
-        <v>4.57</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="O23">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P23">
         <v>10</v>
       </c>
       <c r="Q23">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="R23">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="S23">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="T23">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="U23">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V23">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W23">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="X23">
         <v>1.25</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="Z23">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AA23">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AB23">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="AC23">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AD23">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="AE23">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AF23">
         <v>8.5</v>
       </c>
       <c r="AG23">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AH23">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="AI23">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="AJ23">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AK23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AL23">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AM23">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AQ23">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>45389</v>
@@ -4179,115 +4179,115 @@
         <v>198</v>
       </c>
       <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>2.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>1.47</v>
+      </c>
+      <c r="K24">
+        <v>4.95</v>
+      </c>
+      <c r="L24">
+        <v>5.9</v>
+      </c>
+      <c r="M24">
+        <v>1.29</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>1.02</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>1.18</v>
+      </c>
+      <c r="R24">
+        <v>4.33</v>
+      </c>
+      <c r="S24">
+        <v>1.58</v>
+      </c>
+      <c r="T24">
+        <v>2.38</v>
+      </c>
+      <c r="U24">
+        <v>1.75</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1.15</v>
+      </c>
+      <c r="X24">
+        <v>1.2</v>
+      </c>
+      <c r="Y24">
+        <v>2.5</v>
+      </c>
+      <c r="Z24">
+        <v>2.36</v>
+      </c>
+      <c r="AA24">
+        <v>1.36</v>
+      </c>
+      <c r="AB24">
+        <v>2.4</v>
+      </c>
+      <c r="AC24">
+        <v>1.73</v>
+      </c>
+      <c r="AD24">
+        <v>4.13</v>
+      </c>
+      <c r="AE24">
+        <v>1.38</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24">
+        <v>3.65</v>
+      </c>
+      <c r="AH24">
+        <v>1.21</v>
+      </c>
+      <c r="AI24">
+        <v>3.65</v>
+      </c>
+      <c r="AJ24">
+        <v>1.4</v>
+      </c>
+      <c r="AK24">
+        <v>2.6</v>
+      </c>
+      <c r="AL24">
+        <v>1.68</v>
+      </c>
+      <c r="AM24">
+        <v>2</v>
+      </c>
+      <c r="AN24">
         <v>2.1</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>3.4</v>
-      </c>
-      <c r="L24">
-        <v>3.6</v>
-      </c>
-      <c r="M24">
-        <v>1.38</v>
-      </c>
-      <c r="N24">
-        <v>2.8</v>
-      </c>
-      <c r="O24">
-        <v>1.05</v>
-      </c>
-      <c r="P24">
-        <v>8.5</v>
-      </c>
-      <c r="Q24">
-        <v>1.28</v>
-      </c>
-      <c r="R24">
-        <v>3.4</v>
-      </c>
-      <c r="S24">
-        <v>1.84</v>
-      </c>
-      <c r="T24">
-        <v>1.83</v>
-      </c>
-      <c r="U24">
-        <v>1.7</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
-      <c r="W24">
-        <v>1.22</v>
-      </c>
-      <c r="X24">
-        <v>1.22</v>
-      </c>
-      <c r="Y24">
-        <v>1.83</v>
-      </c>
-      <c r="Z24">
-        <v>2</v>
-      </c>
-      <c r="AA24">
-        <v>1.14</v>
-      </c>
-      <c r="AB24">
-        <v>1.5</v>
-      </c>
-      <c r="AC24">
-        <v>1.26</v>
-      </c>
-      <c r="AD24">
-        <v>2.76</v>
-      </c>
-      <c r="AE24">
-        <v>1.65</v>
-      </c>
-      <c r="AF24">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AG24">
-        <v>2.56</v>
-      </c>
-      <c r="AH24">
-        <v>1.39</v>
-      </c>
-      <c r="AI24">
-        <v>2.67</v>
-      </c>
-      <c r="AJ24">
-        <v>1.7</v>
-      </c>
-      <c r="AK24">
-        <v>1.98</v>
-      </c>
-      <c r="AL24">
-        <v>2.19</v>
-      </c>
-      <c r="AM24">
-        <v>1.57</v>
-      </c>
-      <c r="AN24">
-        <v>2.98</v>
-      </c>
       <c r="AO24">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4310,115 +4310,115 @@
         <v>199</v>
       </c>
       <c r="G25">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H25">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J25">
         <v>2.12</v>
       </c>
       <c r="K25">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="L25">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="M25">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N25">
+        <v>2.6</v>
+      </c>
+      <c r="O25">
+        <v>1.06</v>
+      </c>
+      <c r="P25">
+        <v>7.2</v>
+      </c>
+      <c r="Q25">
+        <v>1.33</v>
+      </c>
+      <c r="R25">
+        <v>3.1</v>
+      </c>
+      <c r="S25">
+        <v>2.12</v>
+      </c>
+      <c r="T25">
+        <v>1.68</v>
+      </c>
+      <c r="U25">
+        <v>1.8</v>
+      </c>
+      <c r="V25">
+        <v>1.95</v>
+      </c>
+      <c r="W25">
+        <v>1.33</v>
+      </c>
+      <c r="X25">
+        <v>1.25</v>
+      </c>
+      <c r="Y25">
+        <v>1.66</v>
+      </c>
+      <c r="Z25">
+        <v>1.62</v>
+      </c>
+      <c r="AA25">
+        <v>0.62</v>
+      </c>
+      <c r="AB25">
+        <v>1.41</v>
+      </c>
+      <c r="AC25">
+        <v>1.4</v>
+      </c>
+      <c r="AD25">
+        <v>2.81</v>
+      </c>
+      <c r="AE25">
+        <v>1.95</v>
+      </c>
+      <c r="AF25">
+        <v>8</v>
+      </c>
+      <c r="AG25">
+        <v>2.1</v>
+      </c>
+      <c r="AH25">
+        <v>1.2</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.28</v>
+      </c>
+      <c r="AK25">
         <v>3.2</v>
       </c>
-      <c r="O25">
-        <v>1.04</v>
-      </c>
-      <c r="P25">
-        <v>8.5</v>
-      </c>
-      <c r="Q25">
-        <v>1.2</v>
-      </c>
-      <c r="R25">
-        <v>3.9</v>
-      </c>
-      <c r="S25">
-        <v>1.74</v>
-      </c>
-      <c r="T25">
+      <c r="AL25">
+        <v>1.51</v>
+      </c>
+      <c r="AM25">
+        <v>2.32</v>
+      </c>
+      <c r="AN25">
         <v>1.98</v>
       </c>
-      <c r="U25">
-        <v>1.6</v>
-      </c>
-      <c r="V25">
-        <v>2.2</v>
-      </c>
-      <c r="W25">
-        <v>1.22</v>
-      </c>
-      <c r="X25">
-        <v>1.27</v>
-      </c>
-      <c r="Y25">
-        <v>1.8</v>
-      </c>
-      <c r="Z25">
-        <v>0.77</v>
-      </c>
-      <c r="AA25">
-        <v>0.15</v>
-      </c>
-      <c r="AB25">
-        <v>1.15</v>
-      </c>
-      <c r="AC25">
-        <v>1.38</v>
-      </c>
-      <c r="AD25">
-        <v>2.53</v>
-      </c>
-      <c r="AE25">
+      <c r="AO25">
         <v>1.82</v>
       </c>
-      <c r="AF25">
-        <v>8.5</v>
-      </c>
-      <c r="AG25">
-        <v>2.32</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>1.32</v>
-      </c>
-      <c r="AM25">
-        <v>2.98</v>
-      </c>
-      <c r="AN25">
-        <v>1.55</v>
-      </c>
-      <c r="AO25">
-        <v>2.23</v>
-      </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4450,13 +4450,13 @@
         <v>4.75</v>
       </c>
       <c r="J26">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="K26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
-        <v>4.53</v>
+        <v>4.05</v>
       </c>
       <c r="M26">
         <v>1.49</v>
@@ -4477,10 +4477,10 @@
         <v>2.75</v>
       </c>
       <c r="S26">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T26">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="U26">
         <v>2.05</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>45389</v>
@@ -4563,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
@@ -4572,28 +4572,28 @@
         <v>201</v>
       </c>
       <c r="G27">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="H27">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I27">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J27">
-        <v>1.65</v>
+        <v>3.9</v>
       </c>
       <c r="K27">
-        <v>3.88</v>
+        <v>3.95</v>
       </c>
       <c r="L27">
-        <v>4.62</v>
+        <v>1.88</v>
       </c>
       <c r="M27">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>1.04</v>
@@ -4602,79 +4602,79 @@
         <v>13</v>
       </c>
       <c r="Q27">
+        <v>1.26</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>1.68</v>
+      </c>
+      <c r="T27">
+        <v>2.08</v>
+      </c>
+      <c r="U27">
+        <v>1.7</v>
+      </c>
+      <c r="V27">
+        <v>2.05</v>
+      </c>
+      <c r="W27">
+        <v>1.92</v>
+      </c>
+      <c r="X27">
         <v>1.24</v>
       </c>
-      <c r="R27">
-        <v>4.2</v>
-      </c>
-      <c r="S27">
-        <v>1.72</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>1.67</v>
-      </c>
-      <c r="V27">
-        <v>2.1</v>
-      </c>
-      <c r="W27">
-        <v>1.22</v>
-      </c>
-      <c r="X27">
-        <v>1.22</v>
-      </c>
       <c r="Y27">
-        <v>2.05</v>
+        <v>1.26</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AB27">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="AC27">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AD27">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="AE27">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="AF27">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG27">
-        <v>3.05</v>
+        <v>1.68</v>
       </c>
       <c r="AH27">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AI27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ27">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AK27">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="AL27">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AM27">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AN27">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="AO27">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AP27">
         <v>3.2</v>
@@ -4712,13 +4712,13 @@
         <v>3.5</v>
       </c>
       <c r="J28">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="K28">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="M28">
         <v>1.44</v>
@@ -4739,7 +4739,7 @@
         <v>3.3</v>
       </c>
       <c r="S28">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T28">
         <v>1.72</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>45389</v>
@@ -4825,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>124</v>
@@ -4834,28 +4834,28 @@
         <v>203</v>
       </c>
       <c r="G29">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="H29">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I29">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J29">
-        <v>3.98</v>
+        <v>1.67</v>
       </c>
       <c r="K29">
-        <v>3.62</v>
+        <v>4.25</v>
       </c>
       <c r="L29">
-        <v>1.81</v>
+        <v>4.65</v>
       </c>
       <c r="M29">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
         <v>1.04</v>
@@ -4864,79 +4864,79 @@
         <v>13</v>
       </c>
       <c r="Q29">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S29">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T29">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="U29">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V29">
+        <v>2.1</v>
+      </c>
+      <c r="W29">
+        <v>1.22</v>
+      </c>
+      <c r="X29">
+        <v>1.22</v>
+      </c>
+      <c r="Y29">
         <v>2.05</v>
       </c>
-      <c r="W29">
-        <v>1.92</v>
-      </c>
-      <c r="X29">
-        <v>1.24</v>
-      </c>
-      <c r="Y29">
-        <v>1.26</v>
-      </c>
       <c r="Z29">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="AC29">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AD29">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AE29">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="AF29">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG29">
-        <v>1.68</v>
+        <v>3.05</v>
       </c>
       <c r="AH29">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AI29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ29">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AK29">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="AL29">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AM29">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AN29">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AO29">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AP29">
         <v>3.2</v>
@@ -4974,13 +4974,13 @@
         <v>3.1</v>
       </c>
       <c r="J30">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="K30">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="L30">
-        <v>2.64</v>
+        <v>2.45</v>
       </c>
       <c r="M30">
         <v>1.33</v>
@@ -5001,10 +5001,10 @@
         <v>3.7</v>
       </c>
       <c r="S30">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="T30">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="U30">
         <v>1.57</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2">
         <v>45389</v>
@@ -5087,7 +5087,7 @@
         <v>79</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
         <v>126</v>
@@ -5096,120 +5096,120 @@
         <v>205</v>
       </c>
       <c r="G31">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I31">
         <v>4</v>
       </c>
       <c r="J31">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="K31">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="L31">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O31">
         <v>1.04</v>
       </c>
       <c r="P31">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q31">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="R31">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="S31">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T31">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="U31">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W31">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X31">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Y31">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AA31">
-        <v>1.08</v>
+        <v>0.15</v>
       </c>
       <c r="AB31">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AC31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AD31">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="AE31">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AF31">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG31">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="AH31">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="AM31">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="AN31">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO31">
-        <v>1.43</v>
+        <v>2.23</v>
       </c>
       <c r="AP31">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2">
         <v>45389</v>
@@ -5218,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>127</v>
@@ -5227,34 +5227,34 @@
         <v>206</v>
       </c>
       <c r="G32">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H32">
         <v>2.05</v>
       </c>
       <c r="I32">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J32">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="K32">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
-        <v>3.33</v>
+        <v>3.55</v>
       </c>
       <c r="M32">
         <v>1.44</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="O32">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P32">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q32">
         <v>1.33</v>
@@ -5263,84 +5263,84 @@
         <v>3.1</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T32">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U32">
+        <v>1.91</v>
+      </c>
+      <c r="V32">
         <v>1.8</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X32">
+        <v>1.3</v>
+      </c>
+      <c r="Y32">
+        <v>1.88</v>
+      </c>
+      <c r="Z32">
+        <v>1.79</v>
+      </c>
+      <c r="AA32">
+        <v>0.93</v>
+      </c>
+      <c r="AB32">
+        <v>1.49</v>
+      </c>
+      <c r="AC32">
+        <v>1.42</v>
+      </c>
+      <c r="AD32">
+        <v>2.91</v>
+      </c>
+      <c r="AE32">
+        <v>1.5</v>
+      </c>
+      <c r="AF32">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG32">
+        <v>2.91</v>
+      </c>
+      <c r="AH32">
         <v>1.25</v>
       </c>
-      <c r="Y32">
-        <v>1.66</v>
-      </c>
-      <c r="Z32">
-        <v>1.62</v>
-      </c>
-      <c r="AA32">
-        <v>0.62</v>
-      </c>
-      <c r="AB32">
-        <v>1.41</v>
-      </c>
-      <c r="AC32">
-        <v>1.4</v>
-      </c>
-      <c r="AD32">
-        <v>2.81</v>
-      </c>
-      <c r="AE32">
-        <v>1.95</v>
-      </c>
-      <c r="AF32">
-        <v>8</v>
-      </c>
-      <c r="AG32">
+      <c r="AI32">
+        <v>3.6</v>
+      </c>
+      <c r="AJ32">
+        <v>1.42</v>
+      </c>
+      <c r="AK32">
+        <v>2.62</v>
+      </c>
+      <c r="AL32">
+        <v>1.67</v>
+      </c>
+      <c r="AM32">
         <v>2.1</v>
       </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>1.28</v>
-      </c>
-      <c r="AK32">
-        <v>3.2</v>
-      </c>
-      <c r="AL32">
-        <v>1.51</v>
-      </c>
-      <c r="AM32">
-        <v>2.32</v>
-      </c>
       <c r="AN32">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AO32">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>45389</v>
@@ -5349,7 +5349,7 @@
         <v>79</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>128</v>
@@ -5358,120 +5358,120 @@
         <v>207</v>
       </c>
       <c r="G33">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H33">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I33">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J33">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="K33">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M33">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="N33">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="O33">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P33">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Q33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R33">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="S33">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="T33">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="U33">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W33">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X33">
         <v>1.3</v>
       </c>
       <c r="Y33">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="Z33">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="AA33">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="AB33">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AC33">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AD33">
-        <v>2.91</v>
+        <v>3.22</v>
       </c>
       <c r="AE33">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AF33">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG33">
-        <v>2.91</v>
+        <v>2.33</v>
       </c>
       <c r="AH33">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI33">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="AJ33">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AK33">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AL33">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AM33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN33">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AO33">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>45389</v>
@@ -5480,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>129</v>
@@ -5489,115 +5489,115 @@
         <v>208</v>
       </c>
       <c r="G34">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="H34">
         <v>2.2</v>
       </c>
       <c r="I34">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>2.39</v>
+        <v>2.05</v>
       </c>
       <c r="K34">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>2.65</v>
+        <v>3.35</v>
       </c>
       <c r="M34">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>1.04</v>
+      </c>
+      <c r="P34">
+        <v>11.5</v>
+      </c>
+      <c r="Q34">
+        <v>1.29</v>
+      </c>
+      <c r="R34">
+        <v>3.8</v>
+      </c>
+      <c r="S34">
+        <v>1.86</v>
+      </c>
+      <c r="T34">
+        <v>2.02</v>
+      </c>
+      <c r="U34">
+        <v>1.7</v>
+      </c>
+      <c r="V34">
+        <v>2.05</v>
+      </c>
+      <c r="W34">
+        <v>1.3</v>
+      </c>
+      <c r="X34">
+        <v>1.25</v>
+      </c>
+      <c r="Y34">
+        <v>1.83</v>
+      </c>
+      <c r="Z34">
+        <v>1.08</v>
+      </c>
+      <c r="AA34">
+        <v>1.08</v>
+      </c>
+      <c r="AB34">
+        <v>1.45</v>
+      </c>
+      <c r="AC34">
+        <v>1.14</v>
+      </c>
+      <c r="AD34">
+        <v>2.59</v>
+      </c>
+      <c r="AE34">
+        <v>1.68</v>
+      </c>
+      <c r="AF34">
+        <v>7.5</v>
+      </c>
+      <c r="AG34">
+        <v>2.55</v>
+      </c>
+      <c r="AH34">
+        <v>1.3</v>
+      </c>
+      <c r="AI34">
         <v>2.95</v>
       </c>
-      <c r="O34">
-        <v>1.03</v>
-      </c>
-      <c r="P34">
-        <v>10</v>
-      </c>
-      <c r="Q34">
-        <v>1.25</v>
-      </c>
-      <c r="R34">
-        <v>3.75</v>
-      </c>
-      <c r="S34">
-        <v>1.76</v>
-      </c>
-      <c r="T34">
+      <c r="AJ34">
+        <v>1.56</v>
+      </c>
+      <c r="AK34">
+        <v>2.2</v>
+      </c>
+      <c r="AL34">
         <v>1.96</v>
       </c>
-      <c r="U34">
-        <v>1.65</v>
-      </c>
-      <c r="V34">
-        <v>2.1</v>
-      </c>
-      <c r="W34">
-        <v>1.35</v>
-      </c>
-      <c r="X34">
-        <v>1.3</v>
-      </c>
-      <c r="Y34">
-        <v>1.52</v>
-      </c>
-      <c r="Z34">
-        <v>2.08</v>
-      </c>
-      <c r="AA34">
-        <v>1.85</v>
-      </c>
-      <c r="AB34">
-        <v>1.65</v>
-      </c>
-      <c r="AC34">
-        <v>1.57</v>
-      </c>
-      <c r="AD34">
-        <v>3.22</v>
-      </c>
-      <c r="AE34">
-        <v>1.82</v>
-      </c>
-      <c r="AF34">
-        <v>8</v>
-      </c>
-      <c r="AG34">
-        <v>2.33</v>
-      </c>
-      <c r="AH34">
-        <v>1.2</v>
-      </c>
-      <c r="AI34">
-        <v>3.84</v>
-      </c>
-      <c r="AJ34">
-        <v>1.4</v>
-      </c>
-      <c r="AK34">
-        <v>2.64</v>
-      </c>
-      <c r="AL34">
-        <v>1.73</v>
-      </c>
       <c r="AM34">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AN34">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="AO34">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AP34">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5629,13 +5629,13 @@
         <v>3.25</v>
       </c>
       <c r="J35">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="K35">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="L35">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="M35">
         <v>1.25</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>45389</v>
@@ -5742,7 +5742,7 @@
         <v>81</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>131</v>
@@ -5751,85 +5751,85 @@
         <v>210</v>
       </c>
       <c r="G36">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H36">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I36">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="J36">
-        <v>2.48</v>
+        <v>2.17</v>
       </c>
       <c r="K36">
-        <v>3.25</v>
+        <v>3.54</v>
       </c>
       <c r="L36">
-        <v>2.71</v>
+        <v>3.24</v>
       </c>
       <c r="M36">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="N36">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="O36">
+        <v>1.05</v>
+      </c>
+      <c r="P36">
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <v>1.28</v>
+      </c>
+      <c r="R36">
+        <v>3.55</v>
+      </c>
+      <c r="S36">
+        <v>1.86</v>
+      </c>
+      <c r="T36">
+        <v>1.94</v>
+      </c>
+      <c r="U36">
+        <v>1.62</v>
+      </c>
+      <c r="V36">
+        <v>2.1</v>
+      </c>
+      <c r="W36">
+        <v>1.38</v>
+      </c>
+      <c r="X36">
+        <v>1.25</v>
+      </c>
+      <c r="Y36">
+        <v>1.57</v>
+      </c>
+      <c r="Z36">
+        <v>0.93</v>
+      </c>
+      <c r="AA36">
+        <v>0.6</v>
+      </c>
+      <c r="AB36">
+        <v>1.16</v>
+      </c>
+      <c r="AC36">
         <v>1.04</v>
       </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <v>1.22</v>
-      </c>
-      <c r="R36">
-        <v>4.2</v>
-      </c>
-      <c r="S36">
-        <v>1.82</v>
-      </c>
-      <c r="T36">
-        <v>1.92</v>
-      </c>
-      <c r="U36">
-        <v>1.55</v>
-      </c>
-      <c r="V36">
-        <v>2.25</v>
-      </c>
-      <c r="W36">
-        <v>1.62</v>
-      </c>
-      <c r="X36">
-        <v>1.28</v>
-      </c>
-      <c r="Y36">
-        <v>1.42</v>
-      </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
-      <c r="AA36">
-        <v>2.09</v>
-      </c>
-      <c r="AB36">
-        <v>1.79</v>
-      </c>
-      <c r="AC36">
-        <v>1.62</v>
-      </c>
       <c r="AD36">
-        <v>3.41</v>
+        <v>2.2</v>
       </c>
       <c r="AE36">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AF36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG36">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="AH36">
         <v>1.24</v>
@@ -5838,33 +5838,33 @@
         <v>4.01</v>
       </c>
       <c r="AJ36">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AK36">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AL36">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AM36">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AN36">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="AO36">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AP36">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2">
         <v>45389</v>
@@ -5891,13 +5891,13 @@
         <v>1.5</v>
       </c>
       <c r="J37">
-        <v>16</v>
+        <v>11.9</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>6.64</v>
       </c>
       <c r="L37">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M37">
         <v>1.23</v>
@@ -5918,10 +5918,10 @@
         <v>5</v>
       </c>
       <c r="S37">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T37">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="U37">
         <v>2.33</v>
@@ -5963,39 +5963,39 @@
         <v>1.12</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2">
         <v>45389</v>
@@ -6004,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>133</v>
@@ -6013,85 +6013,85 @@
         <v>212</v>
       </c>
       <c r="G38">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H38">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I38">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="J38">
-        <v>1.99</v>
+        <v>2.69</v>
       </c>
       <c r="K38">
-        <v>3.17</v>
+        <v>3.7</v>
       </c>
       <c r="L38">
-        <v>2.92</v>
+        <v>2.29</v>
       </c>
       <c r="M38">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="N38">
-        <v>2.8</v>
+        <v>3.31</v>
       </c>
       <c r="O38">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q38">
+        <v>1.22</v>
+      </c>
+      <c r="R38">
+        <v>4.2</v>
+      </c>
+      <c r="S38">
+        <v>1.64</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.55</v>
+      </c>
+      <c r="V38">
+        <v>2.25</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
         <v>1.28</v>
       </c>
-      <c r="R38">
-        <v>3.55</v>
-      </c>
-      <c r="S38">
-        <v>1.74</v>
-      </c>
-      <c r="T38">
-        <v>1.8</v>
-      </c>
-      <c r="U38">
+      <c r="Y38">
+        <v>1.42</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>2.09</v>
+      </c>
+      <c r="AB38">
+        <v>1.79</v>
+      </c>
+      <c r="AC38">
         <v>1.62</v>
       </c>
-      <c r="V38">
-        <v>2.1</v>
-      </c>
-      <c r="W38">
-        <v>1.38</v>
-      </c>
-      <c r="X38">
-        <v>1.25</v>
-      </c>
-      <c r="Y38">
-        <v>1.57</v>
-      </c>
-      <c r="Z38">
-        <v>0.93</v>
-      </c>
-      <c r="AA38">
-        <v>0.6</v>
-      </c>
-      <c r="AB38">
-        <v>1.16</v>
-      </c>
-      <c r="AC38">
-        <v>1.04</v>
-      </c>
       <c r="AD38">
-        <v>2.2</v>
+        <v>3.41</v>
       </c>
       <c r="AE38">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="AF38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG38">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="AH38">
         <v>1.24</v>
@@ -6100,28 +6100,28 @@
         <v>4.01</v>
       </c>
       <c r="AJ38">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AK38">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AL38">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AM38">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AN38">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="AO38">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AP38">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="AQ38">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6153,13 +6153,13 @@
         <v>1.62</v>
       </c>
       <c r="J39">
-        <v>12.64</v>
+        <v>15</v>
       </c>
       <c r="K39">
-        <v>5.16</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M39">
         <v>1.3</v>
@@ -6180,10 +6180,10 @@
         <v>4.25</v>
       </c>
       <c r="S39">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T39">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U39">
         <v>2.38</v>
@@ -6284,13 +6284,13 @@
         <v>2.6</v>
       </c>
       <c r="J40">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K40">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="L40">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="M40">
         <v>1.45</v>
@@ -6311,10 +6311,10 @@
         <v>2.8</v>
       </c>
       <c r="S40">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T40">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U40">
         <v>1.87</v>
@@ -6415,13 +6415,13 @@
         <v>3.35</v>
       </c>
       <c r="J41">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="K41">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="L41">
-        <v>2.6</v>
+        <v>2.49</v>
       </c>
       <c r="M41">
         <v>1.48</v>
@@ -6442,7 +6442,7 @@
         <v>2.8</v>
       </c>
       <c r="S41">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="T41">
         <v>1.52</v>
@@ -6546,13 +6546,13 @@
         <v>3.6</v>
       </c>
       <c r="J42">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="K42">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="L42">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="M42">
         <v>1.54</v>
@@ -6573,7 +6573,7 @@
         <v>2.7</v>
       </c>
       <c r="S42">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="T42">
         <v>1.52</v>
@@ -6677,13 +6677,13 @@
         <v>3.2</v>
       </c>
       <c r="J43">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K43">
-        <v>3.23</v>
+        <v>3.55</v>
       </c>
       <c r="L43">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="M43">
         <v>1.36</v>
@@ -6692,10 +6692,10 @@
         <v>3</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q43">
         <v>1.29</v>
@@ -6704,10 +6704,10 @@
         <v>3.4</v>
       </c>
       <c r="S43">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="T43">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U43">
         <v>1.67</v>
@@ -6740,48 +6740,48 @@
         <v>2.8</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>45389</v>
@@ -6790,7 +6790,7 @@
         <v>83</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
         <v>139</v>
@@ -6799,120 +6799,120 @@
         <v>218</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H44">
+        <v>2.4</v>
+      </c>
+      <c r="I44">
+        <v>3.1</v>
+      </c>
+      <c r="J44">
+        <v>2.46</v>
+      </c>
+      <c r="K44">
+        <v>3.85</v>
+      </c>
+      <c r="L44">
+        <v>2.6</v>
+      </c>
+      <c r="M44">
+        <v>1.25</v>
+      </c>
+      <c r="N44">
+        <v>3.75</v>
+      </c>
+      <c r="O44">
+        <v>1.03</v>
+      </c>
+      <c r="P44">
+        <v>21</v>
+      </c>
+      <c r="Q44">
+        <v>1.09</v>
+      </c>
+      <c r="R44">
+        <v>5.55</v>
+      </c>
+      <c r="S44">
+        <v>1.47</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
+        <v>1.44</v>
+      </c>
+      <c r="V44">
         <v>2.63</v>
       </c>
-      <c r="I44">
-        <v>2.2</v>
-      </c>
-      <c r="J44">
-        <v>3.95</v>
-      </c>
-      <c r="K44">
-        <v>3.35</v>
-      </c>
-      <c r="L44">
+      <c r="W44">
+        <v>1.48</v>
+      </c>
+      <c r="X44">
+        <v>1.3</v>
+      </c>
+      <c r="Y44">
+        <v>1.54</v>
+      </c>
+      <c r="Z44">
+        <v>2.13</v>
+      </c>
+      <c r="AA44">
+        <v>1.33</v>
+      </c>
+      <c r="AB44">
         <v>1.89</v>
       </c>
-      <c r="M44">
-        <v>1.2</v>
-      </c>
-      <c r="N44">
-        <v>4.33</v>
-      </c>
-      <c r="O44">
-        <v>1.01</v>
-      </c>
-      <c r="P44">
-        <v>26</v>
-      </c>
-      <c r="Q44">
-        <v>1.08</v>
-      </c>
-      <c r="R44">
-        <v>6.1</v>
-      </c>
-      <c r="S44">
-        <v>1.65</v>
-      </c>
-      <c r="T44">
-        <v>2.12</v>
-      </c>
-      <c r="U44">
-        <v>1.4</v>
-      </c>
-      <c r="V44">
-        <v>2.75</v>
-      </c>
-      <c r="W44">
-        <v>2.21</v>
-      </c>
-      <c r="X44">
-        <v>1.21</v>
-      </c>
-      <c r="Y44">
-        <v>1.24</v>
-      </c>
-      <c r="Z44">
-        <v>1.79</v>
-      </c>
-      <c r="AA44">
-        <v>2</v>
-      </c>
-      <c r="AB44">
-        <v>1.7</v>
-      </c>
       <c r="AC44">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AD44">
-        <v>3.23</v>
+        <v>3.39</v>
       </c>
       <c r="AE44">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="AF44">
         <v>8.5</v>
       </c>
       <c r="AG44">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="AH44">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AI44">
-        <v>5.4</v>
+        <v>5.65</v>
       </c>
       <c r="AJ44">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AK44">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="AL44">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AM44">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AN44">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AO44">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AP44">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
         <v>45389</v>
@@ -6921,7 +6921,7 @@
         <v>83</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
@@ -6930,120 +6930,120 @@
         <v>219</v>
       </c>
       <c r="G45">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="H45">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J45">
-        <v>2.9</v>
+        <v>1.84</v>
       </c>
       <c r="K45">
-        <v>2.9</v>
+        <v>3.26</v>
       </c>
       <c r="L45">
-        <v>2.13</v>
+        <v>3.87</v>
       </c>
       <c r="M45">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P45">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q45">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="R45">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="S45">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="T45">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
         <v>1.83</v>
       </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="X45">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="Y45">
+        <v>1.9</v>
+      </c>
+      <c r="Z45">
+        <v>1.29</v>
+      </c>
+      <c r="AA45">
+        <v>0.5</v>
+      </c>
+      <c r="AB45">
+        <v>1.55</v>
+      </c>
+      <c r="AC45">
         <v>1.25</v>
       </c>
-      <c r="Z45">
-        <v>1.62</v>
-      </c>
-      <c r="AA45">
-        <v>2</v>
-      </c>
-      <c r="AB45">
-        <v>1.33</v>
-      </c>
-      <c r="AC45">
-        <v>1.4</v>
-      </c>
       <c r="AD45">
-        <v>2.73</v>
+        <v>2.8</v>
       </c>
       <c r="AE45">
-        <v>2.44</v>
+        <v>1.3</v>
       </c>
       <c r="AF45">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG45">
-        <v>1.71</v>
+        <v>4.05</v>
       </c>
       <c r="AH45">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AI45">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="AJ45">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AK45">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="AL45">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AM45">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="AN45">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="AO45">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AP45">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AQ45">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>45389</v>
@@ -7061,120 +7061,120 @@
         <v>220</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2.22</v>
+        <v>2.87</v>
       </c>
       <c r="K46">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L46">
-        <v>3.23</v>
+        <v>2.18</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S46">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="T46">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z46">
-        <v>0.92</v>
+        <v>1.62</v>
       </c>
       <c r="AA46">
-        <v>0.77</v>
+        <v>2</v>
       </c>
       <c r="AB46">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AC46">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="AD46">
-        <v>2.18</v>
+        <v>2.73</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
         <v>45389</v>
@@ -7183,7 +7183,7 @@
         <v>83</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
         <v>142</v>
@@ -7192,120 +7192,120 @@
         <v>221</v>
       </c>
       <c r="G47">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H47">
+        <v>2.63</v>
+      </c>
+      <c r="I47">
+        <v>2.2</v>
+      </c>
+      <c r="J47">
+        <v>3.85</v>
+      </c>
+      <c r="K47">
+        <v>4.4</v>
+      </c>
+      <c r="L47">
+        <v>1.81</v>
+      </c>
+      <c r="M47">
+        <v>1.2</v>
+      </c>
+      <c r="N47">
+        <v>4.33</v>
+      </c>
+      <c r="O47">
+        <v>1.01</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+      <c r="Q47">
+        <v>1.08</v>
+      </c>
+      <c r="R47">
+        <v>6.1</v>
+      </c>
+      <c r="S47">
+        <v>1.62</v>
+      </c>
+      <c r="T47">
+        <v>2.11</v>
+      </c>
+      <c r="U47">
+        <v>1.4</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>2.21</v>
+      </c>
+      <c r="X47">
+        <v>1.21</v>
+      </c>
+      <c r="Y47">
+        <v>1.24</v>
+      </c>
+      <c r="Z47">
+        <v>1.79</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>1.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.53</v>
+      </c>
+      <c r="AD47">
+        <v>3.23</v>
+      </c>
+      <c r="AE47">
+        <v>2.65</v>
+      </c>
+      <c r="AF47">
+        <v>8.5</v>
+      </c>
+      <c r="AG47">
+        <v>1.61</v>
+      </c>
+      <c r="AH47">
+        <v>1.11</v>
+      </c>
+      <c r="AI47">
+        <v>5.4</v>
+      </c>
+      <c r="AJ47">
+        <v>1.2</v>
+      </c>
+      <c r="AK47">
+        <v>3.75</v>
+      </c>
+      <c r="AL47">
+        <v>1.36</v>
+      </c>
+      <c r="AM47">
+        <v>2.7</v>
+      </c>
+      <c r="AN47">
+        <v>1.62</v>
+      </c>
+      <c r="AO47">
         <v>2.1</v>
       </c>
-      <c r="I47">
-        <v>4.33</v>
-      </c>
-      <c r="J47">
-        <v>1.91</v>
-      </c>
-      <c r="K47">
-        <v>3.4</v>
-      </c>
-      <c r="L47">
-        <v>4</v>
-      </c>
-      <c r="M47">
-        <v>1.4</v>
-      </c>
-      <c r="N47">
-        <v>2.7</v>
-      </c>
-      <c r="O47">
-        <v>1.05</v>
-      </c>
-      <c r="P47">
-        <v>8.5</v>
-      </c>
-      <c r="Q47">
-        <v>1.3</v>
-      </c>
-      <c r="R47">
-        <v>3.25</v>
-      </c>
-      <c r="S47">
-        <v>1.93</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.8</v>
-      </c>
-      <c r="V47">
-        <v>1.83</v>
-      </c>
-      <c r="W47">
-        <v>1.18</v>
-      </c>
-      <c r="X47">
-        <v>1.25</v>
-      </c>
-      <c r="Y47">
-        <v>1.9</v>
-      </c>
-      <c r="Z47">
-        <v>1.29</v>
-      </c>
-      <c r="AA47">
-        <v>0.5</v>
-      </c>
-      <c r="AB47">
-        <v>1.55</v>
-      </c>
-      <c r="AC47">
-        <v>1.25</v>
-      </c>
-      <c r="AD47">
-        <v>2.8</v>
-      </c>
-      <c r="AE47">
-        <v>1.3</v>
-      </c>
-      <c r="AF47">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG47">
-        <v>4.05</v>
-      </c>
-      <c r="AH47">
-        <v>1.26</v>
-      </c>
-      <c r="AI47">
-        <v>3.34</v>
-      </c>
-      <c r="AJ47">
-        <v>1.48</v>
-      </c>
-      <c r="AK47">
-        <v>2.4</v>
-      </c>
-      <c r="AL47">
-        <v>1.83</v>
-      </c>
-      <c r="AM47">
-        <v>1.83</v>
-      </c>
-      <c r="AN47">
-        <v>2.38</v>
-      </c>
-      <c r="AO47">
-        <v>1.49</v>
-      </c>
       <c r="AP47">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ47">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2">
         <v>45389</v>
@@ -7314,7 +7314,7 @@
         <v>83</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
         <v>143</v>
@@ -7323,76 +7323,76 @@
         <v>222</v>
       </c>
       <c r="G48">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.12</v>
+      </c>
+      <c r="K48">
+        <v>3.5</v>
+      </c>
+      <c r="L48">
         <v>3.1</v>
       </c>
-      <c r="J48">
-        <v>2.4</v>
-      </c>
-      <c r="K48">
-        <v>3.59</v>
-      </c>
-      <c r="L48">
-        <v>2.56</v>
-      </c>
       <c r="M48">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
       <c r="T48">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="U48">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="X48">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>2.13</v>
+        <v>0.92</v>
       </c>
       <c r="AA48">
-        <v>1.33</v>
+        <v>0.77</v>
       </c>
       <c r="AB48">
-        <v>1.89</v>
+        <v>1.15</v>
       </c>
       <c r="AC48">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AD48">
-        <v>3.39</v>
+        <v>2.18</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>45389</v>
@@ -7445,7 +7445,7 @@
         <v>84</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>144</v>
@@ -7454,115 +7454,115 @@
         <v>223</v>
       </c>
       <c r="G49">
+        <v>2.88</v>
+      </c>
+      <c r="H49">
+        <v>2.05</v>
+      </c>
+      <c r="I49">
+        <v>4.33</v>
+      </c>
+      <c r="J49">
+        <v>1.8</v>
+      </c>
+      <c r="K49">
+        <v>3.35</v>
+      </c>
+      <c r="L49">
         <v>3.75</v>
       </c>
-      <c r="H49">
-        <v>2.3</v>
-      </c>
-      <c r="I49">
-        <v>2.6</v>
-      </c>
-      <c r="J49">
-        <v>2.73</v>
-      </c>
-      <c r="K49">
-        <v>3.55</v>
-      </c>
-      <c r="L49">
-        <v>2.43</v>
-      </c>
       <c r="M49">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="N49">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="O49">
         <v>1.04</v>
       </c>
       <c r="P49">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q49">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="R49">
-        <v>4.4</v>
+        <v>2.84</v>
       </c>
       <c r="S49">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="T49">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="U49">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="V49">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W49">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="X49">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y49">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="Z49">
-        <v>0.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA49">
-        <v>0.62</v>
+        <v>1.38</v>
       </c>
       <c r="AB49">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="AC49">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AD49">
-        <v>2.68</v>
+        <v>3.26</v>
       </c>
       <c r="AE49">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AH49">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AI49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AK49">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AL49">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AM49">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="AN49">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AO49">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>1.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7698,7 +7698,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2">
         <v>45389</v>
@@ -7707,7 +7707,7 @@
         <v>84</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
         <v>146</v>
@@ -7716,120 +7716,120 @@
         <v>225</v>
       </c>
       <c r="G51">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="H51">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I51">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="J51">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="K51">
-        <v>3.12</v>
+        <v>3.9</v>
       </c>
       <c r="L51">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="M51">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="N51">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="O51">
         <v>1.04</v>
       </c>
       <c r="P51">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="Q51">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="R51">
-        <v>2.84</v>
+        <v>4.4</v>
       </c>
       <c r="S51">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="T51">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="U51">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="V51">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W51">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="X51">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y51">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
+        <v>0.57</v>
+      </c>
+      <c r="AA51">
+        <v>0.62</v>
+      </c>
+      <c r="AB51">
+        <v>1.27</v>
+      </c>
+      <c r="AC51">
+        <v>1.36</v>
+      </c>
+      <c r="AD51">
+        <v>2.63</v>
+      </c>
+      <c r="AE51">
+        <v>2.02</v>
+      </c>
+      <c r="AF51">
+        <v>9.4</v>
+      </c>
+      <c r="AG51">
+        <v>2.03</v>
+      </c>
+      <c r="AH51">
+        <v>1.12</v>
+      </c>
+      <c r="AI51">
+        <v>5</v>
+      </c>
+      <c r="AJ51">
+        <v>1.26</v>
+      </c>
+      <c r="AK51">
+        <v>3.34</v>
+      </c>
+      <c r="AL51">
+        <v>1.49</v>
+      </c>
+      <c r="AM51">
+        <v>2.44</v>
+      </c>
+      <c r="AN51">
+        <v>1.82</v>
+      </c>
+      <c r="AO51">
+        <v>1.98</v>
+      </c>
+      <c r="AP51">
+        <v>2.32</v>
+      </c>
+      <c r="AQ51">
         <v>1.54</v>
-      </c>
-      <c r="AA51">
-        <v>1.38</v>
-      </c>
-      <c r="AB51">
-        <v>1.83</v>
-      </c>
-      <c r="AC51">
-        <v>1.43</v>
-      </c>
-      <c r="AD51">
-        <v>3.26</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>45389</v>
@@ -7838,7 +7838,7 @@
         <v>85</v>
       </c>
       <c r="D52">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E52" t="s">
         <v>147</v>
@@ -7847,120 +7847,120 @@
         <v>226</v>
       </c>
       <c r="G52">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="H52">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="I52">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="J52">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="M52">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N52">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O52">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q52">
         <v>1.22</v>
       </c>
       <c r="R52">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S52">
         <v>1.7</v>
       </c>
       <c r="T52">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U52">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X52">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="Y52">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Z52">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AA52">
-        <v>0.79</v>
+        <v>1.83</v>
       </c>
       <c r="AB52">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AC52">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="AD52">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="AE52">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="AF52">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG52">
-        <v>5.15</v>
+        <v>3.07</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AJ52">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AK52">
+        <v>2.27</v>
+      </c>
+      <c r="AL52">
         <v>2</v>
       </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
       <c r="AM52">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="53" spans="1:43">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2">
         <v>45389</v>
@@ -7969,7 +7969,7 @@
         <v>85</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
         <v>148</v>
@@ -7978,115 +7978,115 @@
         <v>227</v>
       </c>
       <c r="G53">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="H53">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="I53">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="J53">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="L53">
-        <v>4.37</v>
+        <v>8</v>
       </c>
       <c r="M53">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N53">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O53">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P53">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q53">
         <v>1.22</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S53">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="T53">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="U53">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="W53">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X53">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="Y53">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Z53">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AA53">
-        <v>1.83</v>
+        <v>0.79</v>
       </c>
       <c r="AB53">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AC53">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="AD53">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="AE53">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
       <c r="AF53">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG53">
-        <v>3.07</v>
+        <v>5.15</v>
       </c>
       <c r="AH53">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AI53">
-        <v>2.96</v>
+        <v>2.67</v>
       </c>
       <c r="AJ53">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AK53">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AL53">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AM53">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AN53">
-        <v>2.58</v>
+        <v>2.93</v>
       </c>
       <c r="AO53">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -8118,13 +8118,13 @@
         <v>4.33</v>
       </c>
       <c r="J54">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="K54">
-        <v>3.72</v>
+        <v>4.05</v>
       </c>
       <c r="L54">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
         <v>1.29</v>
@@ -8145,10 +8145,10 @@
         <v>4.5</v>
       </c>
       <c r="S54">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="T54">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="U54">
         <v>1.53</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2">
         <v>45389</v>
@@ -8231,7 +8231,7 @@
         <v>87</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
         <v>150</v>
@@ -8240,115 +8240,115 @@
         <v>229</v>
       </c>
       <c r="G55">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H55">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I55">
         <v>4</v>
       </c>
       <c r="J55">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="K55">
-        <v>3.27</v>
+        <v>3.45</v>
       </c>
       <c r="L55">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="N55">
+        <v>3.25</v>
+      </c>
+      <c r="O55">
+        <v>1.03</v>
+      </c>
+      <c r="P55">
+        <v>10</v>
+      </c>
+      <c r="Q55">
+        <v>1.2</v>
+      </c>
+      <c r="R55">
+        <v>4.2</v>
+      </c>
+      <c r="S55">
+        <v>1.7</v>
+      </c>
+      <c r="T55">
+        <v>2.03</v>
+      </c>
+      <c r="U55">
+        <v>1.62</v>
+      </c>
+      <c r="V55">
+        <v>2.2</v>
+      </c>
+      <c r="W55">
+        <v>1.29</v>
+      </c>
+      <c r="X55">
+        <v>1.29</v>
+      </c>
+      <c r="Y55">
+        <v>1.88</v>
+      </c>
+      <c r="Z55">
+        <v>1.92</v>
+      </c>
+      <c r="AA55">
+        <v>1.46</v>
+      </c>
+      <c r="AB55">
+        <v>1.9</v>
+      </c>
+      <c r="AC55">
+        <v>1.42</v>
+      </c>
+      <c r="AD55">
+        <v>3.32</v>
+      </c>
+      <c r="AE55">
+        <v>1.41</v>
+      </c>
+      <c r="AF55">
+        <v>9</v>
+      </c>
+      <c r="AG55">
+        <v>3.49</v>
+      </c>
+      <c r="AH55">
+        <v>1.23</v>
+      </c>
+      <c r="AI55">
+        <v>3.56</v>
+      </c>
+      <c r="AJ55">
+        <v>1.44</v>
+      </c>
+      <c r="AK55">
+        <v>2.51</v>
+      </c>
+      <c r="AL55">
+        <v>1.8</v>
+      </c>
+      <c r="AM55">
+        <v>1.9</v>
+      </c>
+      <c r="AN55">
+        <v>2.27</v>
+      </c>
+      <c r="AO55">
+        <v>1.53</v>
+      </c>
+      <c r="AP55">
         <v>3.04</v>
       </c>
-      <c r="O55">
-        <v>1.01</v>
-      </c>
-      <c r="P55">
-        <v>9.9</v>
-      </c>
-      <c r="Q55">
-        <v>1.23</v>
-      </c>
-      <c r="R55">
-        <v>3.56</v>
-      </c>
-      <c r="S55">
-        <v>1.75</v>
-      </c>
-      <c r="T55">
-        <v>1.94</v>
-      </c>
-      <c r="U55">
-        <v>1.69</v>
-      </c>
-      <c r="V55">
-        <v>2.04</v>
-      </c>
-      <c r="W55">
-        <v>1.24</v>
-      </c>
-      <c r="X55">
-        <v>1.26</v>
-      </c>
-      <c r="Y55">
-        <v>1.89</v>
-      </c>
-      <c r="Z55">
-        <v>2</v>
-      </c>
-      <c r="AA55">
-        <v>1</v>
-      </c>
-      <c r="AB55">
-        <v>1.66</v>
-      </c>
-      <c r="AC55">
-        <v>1.75</v>
-      </c>
-      <c r="AD55">
-        <v>3.41</v>
-      </c>
-      <c r="AE55">
-        <v>1.7</v>
-      </c>
-      <c r="AF55">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG55">
-        <v>2.44</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>1.46</v>
-      </c>
-      <c r="AM55">
-        <v>2.45</v>
-      </c>
-      <c r="AN55">
-        <v>1.8</v>
-      </c>
-      <c r="AO55">
-        <v>1.9</v>
-      </c>
-      <c r="AP55">
-        <v>1.95</v>
-      </c>
       <c r="AQ55">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8380,13 +8380,13 @@
         <v>4</v>
       </c>
       <c r="J56">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K56">
-        <v>3.53</v>
+        <v>4.05</v>
       </c>
       <c r="L56">
-        <v>3.17</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
         <v>1.3</v>
@@ -8407,10 +8407,10 @@
         <v>4.5</v>
       </c>
       <c r="S56">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="T56">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="U56">
         <v>1.57</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2">
         <v>45389</v>
@@ -8493,7 +8493,7 @@
         <v>87</v>
       </c>
       <c r="D57">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
         <v>152</v>
@@ -8502,115 +8502,115 @@
         <v>231</v>
       </c>
       <c r="G57">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H57">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I57">
         <v>4</v>
       </c>
       <c r="J57">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="K57">
-        <v>3.22</v>
+        <v>3.7</v>
       </c>
       <c r="L57">
-        <v>3.21</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N57">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="O57">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P57">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="Q57">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R57">
-        <v>4.2</v>
+        <v>3.56</v>
       </c>
       <c r="S57">
+        <v>1.8</v>
+      </c>
+      <c r="T57">
+        <v>1.99</v>
+      </c>
+      <c r="U57">
+        <v>1.69</v>
+      </c>
+      <c r="V57">
+        <v>2.04</v>
+      </c>
+      <c r="W57">
+        <v>1.24</v>
+      </c>
+      <c r="X57">
+        <v>1.26</v>
+      </c>
+      <c r="Y57">
+        <v>1.89</v>
+      </c>
+      <c r="Z57">
+        <v>2</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1.66</v>
+      </c>
+      <c r="AC57">
+        <v>1.75</v>
+      </c>
+      <c r="AD57">
+        <v>3.41</v>
+      </c>
+      <c r="AE57">
         <v>1.7</v>
       </c>
-      <c r="T57">
-        <v>2.03</v>
-      </c>
-      <c r="U57">
-        <v>1.62</v>
-      </c>
-      <c r="V57">
-        <v>2.2</v>
-      </c>
-      <c r="W57">
+      <c r="AF57">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG57">
+        <v>2.44</v>
+      </c>
+      <c r="AH57">
+        <v>1.15</v>
+      </c>
+      <c r="AI57">
+        <v>5.1</v>
+      </c>
+      <c r="AJ57">
         <v>1.29</v>
       </c>
-      <c r="X57">
-        <v>1.29</v>
-      </c>
-      <c r="Y57">
-        <v>1.88</v>
-      </c>
-      <c r="Z57">
-        <v>1.92</v>
-      </c>
-      <c r="AA57">
+      <c r="AK57">
+        <v>3.4</v>
+      </c>
+      <c r="AL57">
         <v>1.46</v>
       </c>
-      <c r="AB57">
+      <c r="AM57">
+        <v>2.45</v>
+      </c>
+      <c r="AN57">
+        <v>1.8</v>
+      </c>
+      <c r="AO57">
         <v>1.9</v>
       </c>
-      <c r="AC57">
-        <v>1.42</v>
-      </c>
-      <c r="AD57">
-        <v>3.32</v>
-      </c>
-      <c r="AE57">
-        <v>1.41</v>
-      </c>
-      <c r="AF57">
-        <v>9</v>
-      </c>
-      <c r="AG57">
-        <v>3.49</v>
-      </c>
-      <c r="AH57">
-        <v>1.23</v>
-      </c>
-      <c r="AI57">
-        <v>3.56</v>
-      </c>
-      <c r="AJ57">
-        <v>1.44</v>
-      </c>
-      <c r="AK57">
-        <v>2.51</v>
-      </c>
-      <c r="AL57">
-        <v>1.8</v>
-      </c>
-      <c r="AM57">
-        <v>1.9</v>
-      </c>
-      <c r="AN57">
-        <v>2.27</v>
-      </c>
-      <c r="AO57">
-        <v>1.53</v>
-      </c>
       <c r="AP57">
-        <v>3.04</v>
+        <v>1.95</v>
       </c>
       <c r="AQ57">
-        <v>1.31</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -8642,13 +8642,13 @@
         <v>3.6</v>
       </c>
       <c r="J58">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="K58">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="L58">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
       <c r="M58">
         <v>1.57</v>
@@ -8669,10 +8669,10 @@
         <v>2.45</v>
       </c>
       <c r="S58">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="T58">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="U58">
         <v>2.1</v>
@@ -8773,13 +8773,13 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="K59">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="L59">
-        <v>2.13</v>
+        <v>2.26</v>
       </c>
       <c r="M59">
         <v>1.44</v>
@@ -8800,10 +8800,10 @@
         <v>3.2</v>
       </c>
       <c r="S59">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U59">
         <v>1.8</v>
@@ -8904,13 +8904,13 @@
         <v>6.5</v>
       </c>
       <c r="J60">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="K60">
-        <v>6.65</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>12.25</v>
+        <v>6.8</v>
       </c>
       <c r="M60">
         <v>1.24</v>
@@ -9035,13 +9035,13 @@
         <v>2.3</v>
       </c>
       <c r="J61">
-        <v>3.62</v>
+        <v>4.6</v>
       </c>
       <c r="K61">
-        <v>3.62</v>
+        <v>4.15</v>
       </c>
       <c r="L61">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="M61">
         <v>1.33</v>
@@ -9062,10 +9062,10 @@
         <v>4</v>
       </c>
       <c r="S61">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T61">
-        <v>1.96</v>
+        <v>2.09</v>
       </c>
       <c r="U61">
         <v>1.75</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
         <v>45389</v>
@@ -9148,7 +9148,7 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>157</v>
@@ -9157,120 +9157,120 @@
         <v>236</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H62">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="I62">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="J62">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="K62">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="L62">
-        <v>1.52</v>
+        <v>3.7</v>
       </c>
       <c r="M62">
+        <v>1.33</v>
+      </c>
+      <c r="N62">
+        <v>3.1</v>
+      </c>
+      <c r="O62">
+        <v>1.03</v>
+      </c>
+      <c r="P62">
+        <v>13</v>
+      </c>
+      <c r="Q62">
+        <v>1.25</v>
+      </c>
+      <c r="R62">
+        <v>3.75</v>
+      </c>
+      <c r="S62">
+        <v>1.78</v>
+      </c>
+      <c r="T62">
+        <v>2.04</v>
+      </c>
+      <c r="U62">
+        <v>1.7</v>
+      </c>
+      <c r="V62">
+        <v>2.1</v>
+      </c>
+      <c r="W62">
+        <v>1.25</v>
+      </c>
+      <c r="X62">
         <v>1.22</v>
       </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62">
-        <v>1.01</v>
-      </c>
-      <c r="P62">
-        <v>24</v>
-      </c>
-      <c r="Q62">
-        <v>1.13</v>
-      </c>
-      <c r="R62">
-        <v>6.4</v>
-      </c>
-      <c r="S62">
+      <c r="Y62">
+        <v>1.9</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>1.8</v>
+      </c>
+      <c r="AB62">
+        <v>1.85</v>
+      </c>
+      <c r="AC62">
+        <v>1.48</v>
+      </c>
+      <c r="AD62">
+        <v>3.33</v>
+      </c>
+      <c r="AE62">
         <v>1.47</v>
       </c>
-      <c r="T62">
-        <v>2.45</v>
-      </c>
-      <c r="U62">
-        <v>1.62</v>
-      </c>
-      <c r="V62">
-        <v>2.2</v>
-      </c>
-      <c r="W62">
-        <v>3</v>
-      </c>
-      <c r="X62">
-        <v>1.16</v>
-      </c>
-      <c r="Y62">
-        <v>1.1</v>
-      </c>
-      <c r="Z62">
-        <v>0.6</v>
-      </c>
-      <c r="AA62">
-        <v>1.29</v>
-      </c>
-      <c r="AB62">
-        <v>1.1</v>
-      </c>
-      <c r="AC62">
-        <v>1.46</v>
-      </c>
-      <c r="AD62">
-        <v>2.56</v>
-      </c>
-      <c r="AE62">
-        <v>3.5</v>
-      </c>
       <c r="AF62">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG62">
-        <v>1.42</v>
+        <v>3.25</v>
       </c>
       <c r="AH62">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AI62">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AJ62">
         <v>1.42</v>
       </c>
       <c r="AK62">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AL62">
         <v>1.73</v>
       </c>
       <c r="AM62">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AN62">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AO62">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AP62">
-        <v>2.75</v>
+        <v>3.36</v>
       </c>
       <c r="AQ62">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
         <v>45389</v>
@@ -9279,7 +9279,7 @@
         <v>89</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
         <v>158</v>
@@ -9288,115 +9288,115 @@
         <v>237</v>
       </c>
       <c r="G63">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H63">
         <v>2.05</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="J63">
-        <v>1.74</v>
+        <v>3.7</v>
       </c>
       <c r="K63">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L63">
-        <v>4.27</v>
+        <v>1.99</v>
       </c>
       <c r="M63">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="N63">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="O63">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P63">
         <v>8</v>
       </c>
       <c r="Q63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="T63">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="U63">
         <v>1.95</v>
       </c>
       <c r="V63">
+        <v>1.8</v>
+      </c>
+      <c r="W63">
+        <v>1.8</v>
+      </c>
+      <c r="X63">
+        <v>1.28</v>
+      </c>
+      <c r="Y63">
+        <v>1.28</v>
+      </c>
+      <c r="Z63">
+        <v>2.14</v>
+      </c>
+      <c r="AA63">
+        <v>2.07</v>
+      </c>
+      <c r="AB63">
         <v>1.73</v>
       </c>
-      <c r="W63">
-        <v>1.17</v>
-      </c>
-      <c r="X63">
-        <v>1.25</v>
-      </c>
-      <c r="Y63">
-        <v>2.05</v>
-      </c>
-      <c r="Z63">
-        <v>2.06</v>
-      </c>
-      <c r="AA63">
-        <v>0.5</v>
-      </c>
-      <c r="AB63">
-        <v>1.49</v>
-      </c>
       <c r="AC63">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AD63">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="AE63">
-        <v>1.54</v>
+        <v>2.51</v>
       </c>
       <c r="AF63">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG63">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="AH63">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AI63">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="AJ63">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AK63">
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
       <c r="AL63">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="AM63">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AN63">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="AO63">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AP63">
-        <v>3.92</v>
+        <v>4.55</v>
       </c>
       <c r="AQ63">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -9428,13 +9428,13 @@
         <v>4</v>
       </c>
       <c r="J64">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="K64">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="L64">
-        <v>3.27</v>
+        <v>2.94</v>
       </c>
       <c r="M64">
         <v>1.57</v>
@@ -9455,10 +9455,10 @@
         <v>2.5</v>
       </c>
       <c r="S64">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T64">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U64">
         <v>2.1</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2">
         <v>45389</v>
@@ -9541,7 +9541,7 @@
         <v>89</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
         <v>160</v>
@@ -9550,120 +9550,120 @@
         <v>239</v>
       </c>
       <c r="G65">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="I65">
+        <v>1.91</v>
+      </c>
+      <c r="J65">
+        <v>6.9</v>
+      </c>
+      <c r="K65">
+        <v>5.3</v>
+      </c>
+      <c r="L65">
+        <v>1.41</v>
+      </c>
+      <c r="M65">
+        <v>1.22</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>1.01</v>
+      </c>
+      <c r="P65">
+        <v>24</v>
+      </c>
+      <c r="Q65">
+        <v>1.13</v>
+      </c>
+      <c r="R65">
+        <v>6.4</v>
+      </c>
+      <c r="S65">
+        <v>1.47</v>
+      </c>
+      <c r="T65">
+        <v>2.45</v>
+      </c>
+      <c r="U65">
+        <v>1.62</v>
+      </c>
+      <c r="V65">
+        <v>2.2</v>
+      </c>
+      <c r="W65">
+        <v>3</v>
+      </c>
+      <c r="X65">
+        <v>1.16</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>0.6</v>
+      </c>
+      <c r="AA65">
+        <v>1.29</v>
+      </c>
+      <c r="AB65">
+        <v>1.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.46</v>
+      </c>
+      <c r="AD65">
+        <v>2.56</v>
+      </c>
+      <c r="AE65">
+        <v>3.5</v>
+      </c>
+      <c r="AF65">
+        <v>8.5</v>
+      </c>
+      <c r="AG65">
+        <v>1.42</v>
+      </c>
+      <c r="AH65">
+        <v>1.22</v>
+      </c>
+      <c r="AI65">
+        <v>3.5</v>
+      </c>
+      <c r="AJ65">
+        <v>1.42</v>
+      </c>
+      <c r="AK65">
+        <v>2.55</v>
+      </c>
+      <c r="AL65">
+        <v>1.73</v>
+      </c>
+      <c r="AM65">
+        <v>1.97</v>
+      </c>
+      <c r="AN65">
+        <v>2.16</v>
+      </c>
+      <c r="AO65">
+        <v>1.58</v>
+      </c>
+      <c r="AP65">
         <v>2.75</v>
       </c>
-      <c r="J65">
-        <v>3.48</v>
-      </c>
-      <c r="K65">
-        <v>3.15</v>
-      </c>
-      <c r="L65">
-        <v>1.9</v>
-      </c>
-      <c r="M65">
-        <v>1.44</v>
-      </c>
-      <c r="N65">
-        <v>2.63</v>
-      </c>
-      <c r="O65">
-        <v>1.03</v>
-      </c>
-      <c r="P65">
-        <v>8</v>
-      </c>
-      <c r="Q65">
-        <v>1.33</v>
-      </c>
-      <c r="R65">
-        <v>2.93</v>
-      </c>
-      <c r="S65">
-        <v>2.1</v>
-      </c>
-      <c r="T65">
-        <v>1.65</v>
-      </c>
-      <c r="U65">
-        <v>1.95</v>
-      </c>
-      <c r="V65">
-        <v>1.8</v>
-      </c>
-      <c r="W65">
-        <v>1.8</v>
-      </c>
-      <c r="X65">
-        <v>1.28</v>
-      </c>
-      <c r="Y65">
-        <v>1.28</v>
-      </c>
-      <c r="Z65">
-        <v>2.14</v>
-      </c>
-      <c r="AA65">
-        <v>2.07</v>
-      </c>
-      <c r="AB65">
-        <v>1.73</v>
-      </c>
-      <c r="AC65">
-        <v>1.54</v>
-      </c>
-      <c r="AD65">
-        <v>3.27</v>
-      </c>
-      <c r="AE65">
-        <v>2.51</v>
-      </c>
-      <c r="AF65">
-        <v>8.4</v>
-      </c>
-      <c r="AG65">
-        <v>1.76</v>
-      </c>
-      <c r="AH65">
-        <v>1.44</v>
-      </c>
-      <c r="AI65">
-        <v>2.58</v>
-      </c>
-      <c r="AJ65">
-        <v>1.81</v>
-      </c>
-      <c r="AK65">
-        <v>1.94</v>
-      </c>
-      <c r="AL65">
-        <v>2.34</v>
-      </c>
-      <c r="AM65">
-        <v>1.53</v>
-      </c>
-      <c r="AN65">
-        <v>3.18</v>
-      </c>
-      <c r="AO65">
-        <v>1.28</v>
-      </c>
-      <c r="AP65">
-        <v>4.55</v>
-      </c>
       <c r="AQ65">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2">
         <v>45389</v>
@@ -9672,7 +9672,7 @@
         <v>89</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E66" t="s">
         <v>161</v>
@@ -9681,120 +9681,120 @@
         <v>240</v>
       </c>
       <c r="G66">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H66">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I66">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J66">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="K66">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L66">
         <v>4.05</v>
       </c>
       <c r="M66">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="N66">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O66">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P66">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q66">
+        <v>1.38</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>2.04</v>
+      </c>
+      <c r="T66">
+        <v>1.82</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
+        <v>1.73</v>
+      </c>
+      <c r="W66">
+        <v>1.17</v>
+      </c>
+      <c r="X66">
         <v>1.25</v>
       </c>
-      <c r="R66">
-        <v>3.75</v>
-      </c>
-      <c r="S66">
-        <v>1.74</v>
-      </c>
-      <c r="T66">
-        <v>1.98</v>
-      </c>
-      <c r="U66">
-        <v>1.7</v>
-      </c>
-      <c r="V66">
-        <v>2.1</v>
-      </c>
-      <c r="W66">
-        <v>1.25</v>
-      </c>
-      <c r="X66">
-        <v>1.22</v>
-      </c>
       <c r="Y66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="Z66">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AA66">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB66">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="AC66">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AD66">
-        <v>3.33</v>
+        <v>2.76</v>
       </c>
       <c r="AE66">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AF66">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG66">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="AH66">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AI66">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="AJ66">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AK66">
-        <v>2.65</v>
+        <v>2.11</v>
       </c>
       <c r="AL66">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="AM66">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AN66">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AO66">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>3.36</v>
+        <v>3.92</v>
       </c>
       <c r="AQ66">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>45389</v>
@@ -9803,7 +9803,7 @@
         <v>90</v>
       </c>
       <c r="D67">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
         <v>162</v>
@@ -9812,115 +9812,115 @@
         <v>241</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J67">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="K67">
-        <v>3.47</v>
+        <v>5.4</v>
       </c>
       <c r="L67">
-        <v>4.08</v>
+        <v>6.7</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="S67">
-        <v>2.07</v>
+        <v>1.53</v>
       </c>
       <c r="T67">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Z67">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="AA67">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AB67">
-        <v>1.13</v>
+        <v>1.97</v>
       </c>
       <c r="AC67">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AD67">
-        <v>2.16</v>
+        <v>3.12</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK67">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AL67">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO67">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP67">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -9952,13 +9952,13 @@
         <v>3.03</v>
       </c>
       <c r="J68">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="K68">
-        <v>3.02</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="M68">
         <v>1.36</v>
@@ -9979,10 +9979,10 @@
         <v>3.4</v>
       </c>
       <c r="S68">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U68">
         <v>1.6</v>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
         <v>45389</v>
@@ -10065,7 +10065,7 @@
         <v>90</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
         <v>164</v>
@@ -10074,120 +10074,120 @@
         <v>243</v>
       </c>
       <c r="G69">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>4.65</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
-        <v>6.85</v>
+        <v>3.7</v>
       </c>
       <c r="M69">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="T69">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>1.62</v>
       </c>
-      <c r="V69">
-        <v>2.2</v>
-      </c>
-      <c r="W69">
-        <v>1.08</v>
-      </c>
-      <c r="X69">
-        <v>1.16</v>
-      </c>
-      <c r="Y69">
-        <v>3.1</v>
-      </c>
-      <c r="Z69">
-        <v>2.2</v>
-      </c>
       <c r="AA69">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB69">
-        <v>1.97</v>
+        <v>1.13</v>
       </c>
       <c r="AC69">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AD69">
-        <v>3.12</v>
+        <v>2.16</v>
       </c>
       <c r="AE69">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF69">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AG69">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AH69">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ69">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AK69">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AL69">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AM69">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AN69">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AO69">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2">
         <v>45389</v>
@@ -10196,7 +10196,7 @@
         <v>91</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
         <v>165</v>
@@ -10205,120 +10205,120 @@
         <v>244</v>
       </c>
       <c r="G70">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="H70">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="I70">
+        <v>1.62</v>
+      </c>
+      <c r="J70">
+        <v>14</v>
+      </c>
+      <c r="K70">
+        <v>5.8</v>
+      </c>
+      <c r="L70">
+        <v>1.19</v>
+      </c>
+      <c r="M70">
+        <v>1.28</v>
+      </c>
+      <c r="N70">
+        <v>3.48</v>
+      </c>
+      <c r="O70">
+        <v>1.02</v>
+      </c>
+      <c r="P70">
+        <v>18</v>
+      </c>
+      <c r="Q70">
+        <v>1.17</v>
+      </c>
+      <c r="R70">
+        <v>4.75</v>
+      </c>
+      <c r="S70">
+        <v>1.55</v>
+      </c>
+      <c r="T70">
+        <v>2.29</v>
+      </c>
+      <c r="U70">
         <v>2.4</v>
       </c>
-      <c r="J70">
-        <v>3.95</v>
-      </c>
-      <c r="K70">
-        <v>3.75</v>
-      </c>
-      <c r="L70">
-        <v>1.85</v>
-      </c>
-      <c r="M70">
-        <v>1.29</v>
-      </c>
-      <c r="N70">
-        <v>3.45</v>
-      </c>
-      <c r="O70">
-        <v>1.04</v>
-      </c>
-      <c r="P70">
-        <v>10</v>
-      </c>
-      <c r="Q70">
-        <v>1.22</v>
-      </c>
-      <c r="R70">
+      <c r="V70">
+        <v>1.53</v>
+      </c>
+      <c r="W70">
         <v>4.2</v>
       </c>
-      <c r="S70">
-        <v>1.66</v>
-      </c>
-      <c r="T70">
-        <v>2.09</v>
-      </c>
-      <c r="U70">
-        <v>1.6</v>
-      </c>
-      <c r="V70">
-        <v>2.28</v>
-      </c>
-      <c r="W70">
-        <v>1.94</v>
-      </c>
       <c r="X70">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="Y70">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="Z70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AA70">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AB70">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AC70">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD70">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="AE70">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AF70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG70">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AH70">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ70">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AK70">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AL70">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AM70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN70">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AO70">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AQ70">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="2">
         <v>45389</v>
@@ -10327,7 +10327,7 @@
         <v>91</v>
       </c>
       <c r="D71">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>166</v>
@@ -10336,120 +10336,120 @@
         <v>245</v>
       </c>
       <c r="G71">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="H71">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="I71">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="J71">
-        <v>14.37</v>
+        <v>3.45</v>
       </c>
       <c r="K71">
-        <v>7.11</v>
+        <v>3.75</v>
       </c>
       <c r="L71">
-        <v>1.11</v>
+        <v>1.9</v>
       </c>
       <c r="M71">
+        <v>1.29</v>
+      </c>
+      <c r="N71">
+        <v>3.45</v>
+      </c>
+      <c r="O71">
+        <v>1.04</v>
+      </c>
+      <c r="P71">
+        <v>10</v>
+      </c>
+      <c r="Q71">
+        <v>1.22</v>
+      </c>
+      <c r="R71">
+        <v>4.2</v>
+      </c>
+      <c r="S71">
+        <v>1.7</v>
+      </c>
+      <c r="T71">
+        <v>2.15</v>
+      </c>
+      <c r="U71">
+        <v>1.6</v>
+      </c>
+      <c r="V71">
+        <v>2.28</v>
+      </c>
+      <c r="W71">
+        <v>1.94</v>
+      </c>
+      <c r="X71">
         <v>1.28</v>
       </c>
-      <c r="N71">
-        <v>3.48</v>
-      </c>
-      <c r="O71">
-        <v>1.02</v>
-      </c>
-      <c r="P71">
-        <v>18</v>
-      </c>
-      <c r="Q71">
-        <v>1.17</v>
-      </c>
-      <c r="R71">
-        <v>4.75</v>
-      </c>
-      <c r="S71">
-        <v>1.55</v>
-      </c>
-      <c r="T71">
-        <v>2.3</v>
-      </c>
-      <c r="U71">
-        <v>2.4</v>
-      </c>
-      <c r="V71">
-        <v>1.53</v>
-      </c>
-      <c r="W71">
-        <v>4.2</v>
-      </c>
-      <c r="X71">
-        <v>1.06</v>
-      </c>
       <c r="Y71">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AA71">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AB71">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AC71">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD71">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG71">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH71">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK71">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP71">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2">
         <v>45389</v>
@@ -10458,7 +10458,7 @@
         <v>92</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>167</v>
@@ -10467,115 +10467,115 @@
         <v>246</v>
       </c>
       <c r="G72">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H72">
         <v>2.15</v>
       </c>
       <c r="I72">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J72">
+        <v>1.84</v>
+      </c>
+      <c r="K72">
+        <v>3.6</v>
+      </c>
+      <c r="L72">
+        <v>3.6</v>
+      </c>
+      <c r="M72">
+        <v>1.4</v>
+      </c>
+      <c r="N72">
+        <v>2.75</v>
+      </c>
+      <c r="O72">
+        <v>1.02</v>
+      </c>
+      <c r="P72">
+        <v>9</v>
+      </c>
+      <c r="Q72">
+        <v>1.28</v>
+      </c>
+      <c r="R72">
+        <v>3.5</v>
+      </c>
+      <c r="S72">
+        <v>1.83</v>
+      </c>
+      <c r="T72">
+        <v>1.97</v>
+      </c>
+      <c r="U72">
+        <v>1.75</v>
+      </c>
+      <c r="V72">
         <v>2</v>
       </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
-        <v>3.8</v>
-      </c>
-      <c r="M72">
-        <v>1.43</v>
-      </c>
-      <c r="N72">
-        <v>2.77</v>
-      </c>
-      <c r="O72">
-        <v>1.06</v>
-      </c>
-      <c r="P72">
-        <v>7.5</v>
-      </c>
-      <c r="Q72">
-        <v>1.33</v>
-      </c>
-      <c r="R72">
-        <v>3</v>
-      </c>
-      <c r="S72">
-        <v>2.1</v>
-      </c>
-      <c r="T72">
-        <v>1.67</v>
-      </c>
-      <c r="U72">
-        <v>1.88</v>
-      </c>
-      <c r="V72">
-        <v>1.88</v>
-      </c>
       <c r="W72">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="X72">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="Y72">
+        <v>1.85</v>
+      </c>
+      <c r="Z72">
+        <v>2.25</v>
+      </c>
+      <c r="AA72">
+        <v>1.63</v>
+      </c>
+      <c r="AB72">
         <v>1.77</v>
       </c>
-      <c r="Z72">
-        <v>2.5</v>
-      </c>
-      <c r="AA72">
-        <v>2</v>
-      </c>
-      <c r="AB72">
+      <c r="AC72">
+        <v>1.53</v>
+      </c>
+      <c r="AD72">
+        <v>3.3</v>
+      </c>
+      <c r="AE72">
+        <v>1.84</v>
+      </c>
+      <c r="AF72">
+        <v>8.4</v>
+      </c>
+      <c r="AG72">
+        <v>2.31</v>
+      </c>
+      <c r="AH72">
+        <v>1.36</v>
+      </c>
+      <c r="AI72">
+        <v>2.78</v>
+      </c>
+      <c r="AJ72">
+        <v>1.68</v>
+      </c>
+      <c r="AK72">
+        <v>2.06</v>
+      </c>
+      <c r="AL72">
         <v>2.14</v>
       </c>
-      <c r="AC72">
-        <v>1.5</v>
-      </c>
-      <c r="AD72">
-        <v>3.64</v>
-      </c>
-      <c r="AE72">
-        <v>1.75</v>
-      </c>
-      <c r="AF72">
-        <v>8</v>
-      </c>
-      <c r="AG72">
-        <v>2.52</v>
-      </c>
-      <c r="AH72">
+      <c r="AM72">
+        <v>1.6</v>
+      </c>
+      <c r="AN72">
+        <v>2.88</v>
+      </c>
+      <c r="AO72">
+        <v>1.34</v>
+      </c>
+      <c r="AP72">
+        <v>2.98</v>
+      </c>
+      <c r="AQ72">
         <v>1.32</v>
-      </c>
-      <c r="AI72">
-        <v>2.98</v>
-      </c>
-      <c r="AJ72">
-        <v>1.63</v>
-      </c>
-      <c r="AK72">
-        <v>2.22</v>
-      </c>
-      <c r="AL72">
-        <v>2.04</v>
-      </c>
-      <c r="AM72">
-        <v>1.76</v>
-      </c>
-      <c r="AN72">
-        <v>2.64</v>
-      </c>
-      <c r="AO72">
-        <v>1.4</v>
-      </c>
-      <c r="AP72">
-        <v>3.65</v>
-      </c>
-      <c r="AQ72">
-        <v>1.22</v>
       </c>
     </row>
     <row r="73" spans="1:43">
@@ -10607,13 +10607,13 @@
         <v>4.5</v>
       </c>
       <c r="J73">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K73">
-        <v>3.18</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -10634,10 +10634,10 @@
         <v>3.5</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T73">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U73">
         <v>1.8</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B74" s="2">
         <v>45389</v>
@@ -10720,7 +10720,7 @@
         <v>92</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
         <v>169</v>
@@ -10729,120 +10729,120 @@
         <v>248</v>
       </c>
       <c r="G74">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H74">
         <v>2.15</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J74">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
+        <v>1.43</v>
+      </c>
+      <c r="N74">
+        <v>2.77</v>
+      </c>
+      <c r="O74">
+        <v>1.06</v>
+      </c>
+      <c r="P74">
+        <v>7.5</v>
+      </c>
+      <c r="Q74">
+        <v>1.33</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>2.1</v>
+      </c>
+      <c r="T74">
+        <v>1.67</v>
+      </c>
+      <c r="U74">
+        <v>1.88</v>
+      </c>
+      <c r="V74">
+        <v>1.88</v>
+      </c>
+      <c r="W74">
+        <v>1.24</v>
+      </c>
+      <c r="X74">
+        <v>1.31</v>
+      </c>
+      <c r="Y74">
+        <v>1.77</v>
+      </c>
+      <c r="Z74">
+        <v>2.5</v>
+      </c>
+      <c r="AA74">
+        <v>2</v>
+      </c>
+      <c r="AB74">
+        <v>2.14</v>
+      </c>
+      <c r="AC74">
+        <v>1.5</v>
+      </c>
+      <c r="AD74">
+        <v>3.64</v>
+      </c>
+      <c r="AE74">
+        <v>1.75</v>
+      </c>
+      <c r="AF74">
+        <v>8</v>
+      </c>
+      <c r="AG74">
+        <v>2.52</v>
+      </c>
+      <c r="AH74">
+        <v>1.32</v>
+      </c>
+      <c r="AI74">
+        <v>2.98</v>
+      </c>
+      <c r="AJ74">
+        <v>1.63</v>
+      </c>
+      <c r="AK74">
+        <v>2.22</v>
+      </c>
+      <c r="AL74">
+        <v>2.04</v>
+      </c>
+      <c r="AM74">
+        <v>1.76</v>
+      </c>
+      <c r="AN74">
+        <v>2.64</v>
+      </c>
+      <c r="AO74">
         <v>1.4</v>
       </c>
-      <c r="N74">
-        <v>2.75</v>
-      </c>
-      <c r="O74">
-        <v>1.02</v>
-      </c>
-      <c r="P74">
-        <v>9</v>
-      </c>
-      <c r="Q74">
-        <v>1.28</v>
-      </c>
-      <c r="R74">
-        <v>3.5</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
-        <v>1.72</v>
-      </c>
-      <c r="U74">
-        <v>1.75</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
-      <c r="W74">
-        <v>1.2</v>
-      </c>
-      <c r="X74">
+      <c r="AP74">
+        <v>3.65</v>
+      </c>
+      <c r="AQ74">
         <v>1.22</v>
-      </c>
-      <c r="Y74">
-        <v>1.85</v>
-      </c>
-      <c r="Z74">
-        <v>2.25</v>
-      </c>
-      <c r="AA74">
-        <v>1.63</v>
-      </c>
-      <c r="AB74">
-        <v>1.77</v>
-      </c>
-      <c r="AC74">
-        <v>1.53</v>
-      </c>
-      <c r="AD74">
-        <v>3.3</v>
-      </c>
-      <c r="AE74">
-        <v>1.84</v>
-      </c>
-      <c r="AF74">
-        <v>8.4</v>
-      </c>
-      <c r="AG74">
-        <v>2.31</v>
-      </c>
-      <c r="AH74">
-        <v>1.36</v>
-      </c>
-      <c r="AI74">
-        <v>2.78</v>
-      </c>
-      <c r="AJ74">
-        <v>1.68</v>
-      </c>
-      <c r="AK74">
-        <v>2.06</v>
-      </c>
-      <c r="AL74">
-        <v>2.14</v>
-      </c>
-      <c r="AM74">
-        <v>1.6</v>
-      </c>
-      <c r="AN74">
-        <v>2.88</v>
-      </c>
-      <c r="AO74">
-        <v>1.34</v>
-      </c>
-      <c r="AP74">
-        <v>2.98</v>
-      </c>
-      <c r="AQ74">
-        <v>1.32</v>
       </c>
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B75" s="2">
         <v>45389</v>
@@ -10860,120 +10860,120 @@
         <v>249</v>
       </c>
       <c r="G75">
+        <v>2.7</v>
+      </c>
+      <c r="H75">
+        <v>2.15</v>
+      </c>
+      <c r="I75">
+        <v>3.2</v>
+      </c>
+      <c r="J75">
+        <v>2.46</v>
+      </c>
+      <c r="K75">
+        <v>3.65</v>
+      </c>
+      <c r="L75">
+        <v>2.71</v>
+      </c>
+      <c r="M75">
+        <v>1.35</v>
+      </c>
+      <c r="N75">
+        <v>2.9</v>
+      </c>
+      <c r="O75">
+        <v>1.02</v>
+      </c>
+      <c r="P75">
+        <v>10.5</v>
+      </c>
+      <c r="Q75">
+        <v>1.22</v>
+      </c>
+      <c r="R75">
+        <v>3.9</v>
+      </c>
+      <c r="S75">
+        <v>1.84</v>
+      </c>
+      <c r="T75">
+        <v>2.02</v>
+      </c>
+      <c r="U75">
+        <v>1.55</v>
+      </c>
+      <c r="V75">
+        <v>2.25</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>1.25</v>
+      </c>
+      <c r="Y75">
+        <v>1.52</v>
+      </c>
+      <c r="Z75">
+        <v>1.5</v>
+      </c>
+      <c r="AA75">
+        <v>1.14</v>
+      </c>
+      <c r="AB75">
+        <v>1.64</v>
+      </c>
+      <c r="AC75">
+        <v>1.15</v>
+      </c>
+      <c r="AD75">
+        <v>2.79</v>
+      </c>
+      <c r="AE75">
+        <v>1.92</v>
+      </c>
+      <c r="AF75">
+        <v>9.1</v>
+      </c>
+      <c r="AG75">
+        <v>2.16</v>
+      </c>
+      <c r="AH75">
+        <v>1.16</v>
+      </c>
+      <c r="AI75">
+        <v>4.3</v>
+      </c>
+      <c r="AJ75">
+        <v>1.33</v>
+      </c>
+      <c r="AK75">
+        <v>2.93</v>
+      </c>
+      <c r="AL75">
+        <v>1.61</v>
+      </c>
+      <c r="AM75">
+        <v>2.17</v>
+      </c>
+      <c r="AN75">
+        <v>2.03</v>
+      </c>
+      <c r="AO75">
         <v>1.73</v>
       </c>
-      <c r="H75">
-        <v>2.6</v>
-      </c>
-      <c r="I75">
-        <v>7</v>
-      </c>
-      <c r="J75">
-        <v>1.3</v>
-      </c>
-      <c r="K75">
-        <v>5</v>
-      </c>
-      <c r="L75">
-        <v>8.5</v>
-      </c>
-      <c r="M75">
-        <v>1.25</v>
-      </c>
-      <c r="N75">
-        <v>3.55</v>
-      </c>
-      <c r="O75">
-        <v>1.01</v>
-      </c>
-      <c r="P75">
-        <v>15</v>
-      </c>
-      <c r="Q75">
-        <v>1.13</v>
-      </c>
-      <c r="R75">
-        <v>4.9</v>
-      </c>
-      <c r="S75">
-        <v>1.5</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.77</v>
-      </c>
-      <c r="V75">
-        <v>1.85</v>
-      </c>
-      <c r="W75">
-        <v>1.04</v>
-      </c>
-      <c r="X75">
-        <v>1.1</v>
-      </c>
-      <c r="Y75">
-        <v>3.25</v>
-      </c>
-      <c r="Z75">
-        <v>2.43</v>
-      </c>
-      <c r="AA75">
-        <v>0.86</v>
-      </c>
-      <c r="AB75">
-        <v>2.07</v>
-      </c>
-      <c r="AC75">
-        <v>1.29</v>
-      </c>
-      <c r="AD75">
-        <v>3.36</v>
-      </c>
-      <c r="AE75">
-        <v>1.15</v>
-      </c>
-      <c r="AF75">
-        <v>11.75</v>
-      </c>
-      <c r="AG75">
-        <v>6.2</v>
-      </c>
-      <c r="AH75">
-        <v>1.31</v>
-      </c>
-      <c r="AI75">
-        <v>3.04</v>
-      </c>
-      <c r="AJ75">
-        <v>1.57</v>
-      </c>
-      <c r="AK75">
-        <v>2.19</v>
-      </c>
-      <c r="AL75">
-        <v>1.97</v>
-      </c>
-      <c r="AM75">
-        <v>1.71</v>
-      </c>
-      <c r="AN75">
-        <v>2.6</v>
-      </c>
-      <c r="AO75">
-        <v>1.41</v>
-      </c>
       <c r="AP75">
-        <v>3.56</v>
+        <v>2.62</v>
       </c>
       <c r="AQ75">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="76" spans="1:43">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B76" s="2">
         <v>45389</v>
@@ -10991,115 +10991,115 @@
         <v>250</v>
       </c>
       <c r="G76">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H76">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="I76">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="J76">
-        <v>2.28</v>
+        <v>1.29</v>
       </c>
       <c r="K76">
+        <v>4.87</v>
+      </c>
+      <c r="L76">
+        <v>7.66</v>
+      </c>
+      <c r="M76">
+        <v>1.25</v>
+      </c>
+      <c r="N76">
         <v>3.55</v>
       </c>
-      <c r="L76">
-        <v>2.94</v>
-      </c>
-      <c r="M76">
-        <v>1.35</v>
-      </c>
-      <c r="N76">
-        <v>2.9</v>
-      </c>
       <c r="O76">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P76">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Q76">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="R76">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="S76">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T76">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="V76">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="X76">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="Y76">
-        <v>1.52</v>
+        <v>3.25</v>
       </c>
       <c r="Z76">
-        <v>1.5</v>
+        <v>2.43</v>
       </c>
       <c r="AA76">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AB76">
-        <v>1.64</v>
+        <v>2.07</v>
       </c>
       <c r="AC76">
+        <v>1.29</v>
+      </c>
+      <c r="AD76">
+        <v>3.36</v>
+      </c>
+      <c r="AE76">
         <v>1.15</v>
       </c>
-      <c r="AD76">
-        <v>2.79</v>
-      </c>
-      <c r="AE76">
-        <v>1.92</v>
-      </c>
       <c r="AF76">
-        <v>9.1</v>
+        <v>11.75</v>
       </c>
       <c r="AG76">
-        <v>2.16</v>
+        <v>6.2</v>
       </c>
       <c r="AH76">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AI76">
-        <v>4.3</v>
+        <v>3.04</v>
       </c>
       <c r="AJ76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AK76">
-        <v>2.93</v>
+        <v>2.19</v>
       </c>
       <c r="AL76">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="AM76">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="AN76">
-        <v>2.03</v>
+        <v>2.6</v>
       </c>
       <c r="AO76">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="AP76">
-        <v>2.62</v>
+        <v>3.56</v>
       </c>
       <c r="AQ76">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="77" spans="1:43">
@@ -11131,13 +11131,13 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K77">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="L77">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="M77">
         <v>1.44</v>
@@ -11158,10 +11158,10 @@
         <v>3.23</v>
       </c>
       <c r="S77">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U77">
         <v>1.8</v>
@@ -11265,10 +11265,10 @@
         <v>1.84</v>
       </c>
       <c r="K78">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="L78">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="M78">
         <v>1.44</v>
@@ -11292,7 +11292,7 @@
         <v>2.1</v>
       </c>
       <c r="T78">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -11393,13 +11393,13 @@
         <v>2.8</v>
       </c>
       <c r="J79">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K79">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="M79">
         <v>1.59</v>
@@ -11414,16 +11414,16 @@
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R79">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="S79">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T79">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="U79">
         <v>2.3</v>
@@ -11524,13 +11524,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="K80">
-        <v>5.35</v>
+        <v>4.95</v>
       </c>
       <c r="L80">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="T80">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="U80">
         <v>0</v>

--- a/Jogos_do_Dia/2024-04-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -367,87 +367,87 @@
     <t>Go Ahead Eagles</t>
   </si>
   <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>Sturm Graz</t>
-  </si>
-  <si>
     <t>Feyenoord</t>
   </si>
   <si>
     <t>Teplice</t>
   </si>
   <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Santa Clara</t>
   </si>
   <si>
-    <t>Monza</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Jablonec</t>
+  </si>
+  <si>
+    <t>Pardubice</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Jablonec</t>
-  </si>
-  <si>
-    <t>Pardubice</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Lech Poznań</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
     <t>AS Eupen</t>
   </si>
   <si>
+    <t>Nordsjælland</t>
+  </si>
+  <si>
     <t>Radnik Surdulica</t>
   </si>
   <si>
-    <t>Nordsjælland</t>
-  </si>
-  <si>
     <t>Lamia</t>
   </si>
   <si>
+    <t>Villarreal II</t>
+  </si>
+  <si>
+    <t>Mirandés</t>
+  </si>
+  <si>
     <t>Ascoli</t>
   </si>
   <si>
-    <t>Villarreal II</t>
-  </si>
-  <si>
-    <t>Mirandés</t>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Torreense</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>Radnički Niš</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
   </si>
   <si>
     <t>Yverdon Sport</t>
   </si>
   <si>
-    <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Radnički Niš</t>
-  </si>
-  <si>
-    <t>Torreense</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>GD Chaves</t>
-  </si>
-  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>CD Tenerife</t>
   </si>
   <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
-    <t>RCD Espanyol</t>
-  </si>
-  <si>
     <t>Tottenham Hotspur</t>
   </si>
   <si>
@@ -511,18 +511,18 @@
     <t>Moreirense FC</t>
   </si>
   <si>
+    <t>KVC Westerlo</t>
+  </si>
+  <si>
     <t>OFK Pirin</t>
   </si>
   <si>
-    <t>KVC Westerlo</t>
+    <t>AEK Athens</t>
   </si>
   <si>
     <t>FCSB</t>
   </si>
   <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
     <t>Rijeka</t>
   </si>
   <si>
@@ -604,87 +604,87 @@
     <t>Almere City</t>
   </si>
   <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
     <t>Ajax</t>
   </si>
   <si>
     <t>Hradec Králové</t>
   </si>
   <si>
+    <t>Napoli</t>
+  </si>
+  <si>
     <t>Paços de Ferreira</t>
   </si>
   <si>
-    <t>Napoli</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
+    <t>České Budějovice</t>
+  </si>
+  <si>
+    <t>Domžale</t>
+  </si>
+  <si>
+    <t>Pogoń Szczecin</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Baník Ostrava</t>
-  </si>
-  <si>
-    <t>České Budějovice</t>
-  </si>
-  <si>
-    <t>Domžale</t>
-  </si>
-  <si>
-    <t>Pogoń Szczecin</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Augsburg</t>
   </si>
   <si>
     <t>KV Kortrijk</t>
   </si>
   <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>Red Star Belgrade</t>
   </si>
   <si>
-    <t>København</t>
-  </si>
-  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
+    <t>Burgos CF</t>
+  </si>
+  <si>
+    <t>Sporting Gijón</t>
+  </si>
+  <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Burgos CF</t>
-  </si>
-  <si>
-    <t>Sporting Gijón</t>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
+    <t>Young Boys</t>
   </si>
   <si>
     <t>Grasshopper</t>
   </si>
   <si>
-    <t>Young Boys</t>
-  </si>
-  <si>
-    <t>Voždovac</t>
-  </si>
-  <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
@@ -733,12 +733,12 @@
     <t>SD Eibar</t>
   </si>
   <si>
+    <t>Albacete Balompié</t>
+  </si>
+  <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Albacete Balompié</t>
-  </si>
-  <si>
     <t>Nottingham Forest</t>
   </si>
   <si>
@@ -748,16 +748,16 @@
     <t>Estrela Amadora</t>
   </si>
   <si>
+    <t>KAA Gent</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>KAA Gent</t>
+    <t>PAOK</t>
   </si>
   <si>
     <t>CS U Craiova</t>
-  </si>
-  <si>
-    <t>PAOK</t>
   </si>
   <si>
     <t>Hajduk Split</t>
@@ -1303,16 +1303,16 @@
         <v>2.1</v>
       </c>
       <c r="I2">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="K2">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="L2">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -1333,10 +1333,10 @@
         <v>2.9</v>
       </c>
       <c r="S2">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T2">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2">
         <v>1.73</v>
@@ -1354,10 +1354,10 @@
         <v>1.43</v>
       </c>
       <c r="Z2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA2">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AB2">
         <v>1.52</v>
@@ -1437,13 +1437,13 @@
         <v>3.23</v>
       </c>
       <c r="J3">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="K3">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1464,10 +1464,10 @@
         <v>3.28</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T3">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1485,10 +1485,10 @@
         <v>1.45</v>
       </c>
       <c r="Z3">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AB3">
         <v>1.56</v>
@@ -1500,13 +1500,13 @@
         <v>2.7</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH3">
         <v>1.18</v>
@@ -1568,13 +1568,13 @@
         <v>2.75</v>
       </c>
       <c r="J4">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M4">
         <v>1.33</v>
@@ -1595,10 +1595,10 @@
         <v>3.8</v>
       </c>
       <c r="S4">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="T4">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="U4">
         <v>1.57</v>
@@ -1616,10 +1616,10 @@
         <v>1.4</v>
       </c>
       <c r="Z4">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AA4">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AB4">
         <v>1.51</v>
@@ -1747,10 +1747,10 @@
         <v>2.4</v>
       </c>
       <c r="Z5">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AA5">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AB5">
         <v>2.05</v>
@@ -1830,13 +1830,13 @@
         <v>3.48</v>
       </c>
       <c r="J6">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="K6">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
         <v>1.49</v>
@@ -1860,7 +1860,7 @@
         <v>2.3</v>
       </c>
       <c r="T6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U6">
         <v>1.93</v>
@@ -1878,10 +1878,10 @@
         <v>1.45</v>
       </c>
       <c r="Z6">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AA6">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB6">
         <v>1.68</v>
@@ -1961,13 +1961,13 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1988,10 +1988,10 @@
         <v>3.65</v>
       </c>
       <c r="S7">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -2009,10 +2009,10 @@
         <v>1.18</v>
       </c>
       <c r="Z7">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AB7">
         <v>1.41</v>
@@ -2092,13 +2092,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="K8">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1.3</v>
@@ -2119,10 +2119,10 @@
         <v>4.25</v>
       </c>
       <c r="S8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T8">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="U8">
         <v>1.57</v>
@@ -2140,10 +2140,10 @@
         <v>1.62</v>
       </c>
       <c r="Z8">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AA8">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AB8">
         <v>2.39</v>
@@ -2223,13 +2223,13 @@
         <v>6.5</v>
       </c>
       <c r="J9">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>1.44</v>
@@ -2250,10 +2250,10 @@
         <v>2.95</v>
       </c>
       <c r="S9">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T9">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U9">
         <v>2.2</v>
@@ -2271,10 +2271,10 @@
         <v>2.5</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB9">
         <v>1.66</v>
@@ -2354,13 +2354,13 @@
         <v>2.8</v>
       </c>
       <c r="J10">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="K10">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="M10">
         <v>1.32</v>
@@ -2381,10 +2381,10 @@
         <v>4.35</v>
       </c>
       <c r="S10">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T10">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.58</v>
@@ -2402,10 +2402,10 @@
         <v>1.4</v>
       </c>
       <c r="Z10">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AB10">
         <v>1.42</v>
@@ -2488,10 +2488,10 @@
         <v>1.62</v>
       </c>
       <c r="K11">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="M11">
         <v>1.3</v>
@@ -2512,10 +2512,10 @@
         <v>4.33</v>
       </c>
       <c r="S11">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T11">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="U11">
         <v>1.65</v>
@@ -2533,10 +2533,10 @@
         <v>2.15</v>
       </c>
       <c r="Z11">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AA11">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AB11">
         <v>1.69</v>
@@ -2616,10 +2616,10 @@
         <v>4.1</v>
       </c>
       <c r="J12">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="K12">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L12">
         <v>3.1</v>
@@ -2637,16 +2637,16 @@
         <v>5.95</v>
       </c>
       <c r="Q12">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R12">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="S12">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="T12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U12">
         <v>2.11</v>
@@ -2664,10 +2664,10 @@
         <v>1.54</v>
       </c>
       <c r="Z12">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AB12">
         <v>1.59</v>
@@ -2747,13 +2747,13 @@
         <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="K13">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="L13">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M13">
         <v>1.33</v>
@@ -2774,7 +2774,7 @@
         <v>3.85</v>
       </c>
       <c r="S13">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="T13">
         <v>1.98</v>
@@ -2795,10 +2795,10 @@
         <v>2.05</v>
       </c>
       <c r="Z13">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AA13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB13">
         <v>1.89</v>
@@ -2878,13 +2878,13 @@
         <v>3.92</v>
       </c>
       <c r="J14">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
         <v>1.3</v>
@@ -2905,10 +2905,10 @@
         <v>4.3</v>
       </c>
       <c r="S14">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T14">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.57</v>
@@ -2926,10 +2926,10 @@
         <v>1.83</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA14">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AB14">
         <v>1.77</v>
@@ -3009,13 +3009,13 @@
         <v>3.4</v>
       </c>
       <c r="J15">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K15">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="L15">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="M15">
         <v>1.54</v>
@@ -3030,10 +3030,10 @@
         <v>6</v>
       </c>
       <c r="Q15">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R15">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="S15">
         <v>2.62</v>
@@ -3057,10 +3057,10 @@
         <v>1.36</v>
       </c>
       <c r="Z15">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AA15">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AB15">
         <v>2.04</v>
@@ -3140,13 +3140,13 @@
         <v>4.33</v>
       </c>
       <c r="J16">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="K16">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M16">
         <v>1.75</v>
@@ -3161,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="Q16">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R16">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="T16">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U16">
         <v>2.4</v>
@@ -3188,10 +3188,10 @@
         <v>1.57</v>
       </c>
       <c r="Z16">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AA16">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AB16">
         <v>1.34</v>
@@ -3271,13 +3271,13 @@
         <v>2.38</v>
       </c>
       <c r="J17">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L17">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="M17">
         <v>1.33</v>
@@ -3298,10 +3298,10 @@
         <v>3.99</v>
       </c>
       <c r="S17">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U17">
         <v>1.7</v>
@@ -3319,10 +3319,10 @@
         <v>1.22</v>
       </c>
       <c r="Z17">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AA17">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AB17">
         <v>1.12</v>
@@ -3402,13 +3402,13 @@
         <v>3.2</v>
       </c>
       <c r="J18">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L18">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M18">
         <v>1.44</v>
@@ -3429,10 +3429,10 @@
         <v>3.1</v>
       </c>
       <c r="S18">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -3450,10 +3450,10 @@
         <v>1.38</v>
       </c>
       <c r="Z18">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AA18">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB18">
         <v>1.24</v>
@@ -3536,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L19">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
         <v>1.3</v>
@@ -3548,7 +3548,7 @@
         <v>3.4</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P19">
         <v>17</v>
@@ -3560,10 +3560,10 @@
         <v>4.72</v>
       </c>
       <c r="S19">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T19">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>1.53</v>
@@ -3581,10 +3581,10 @@
         <v>1.78</v>
       </c>
       <c r="Z19">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AA19">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AB19">
         <v>1.63</v>
@@ -3596,43 +3596,43 @@
         <v>3.11</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3664,13 +3664,13 @@
         <v>4</v>
       </c>
       <c r="J20">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="K20">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
         <v>1.38</v>
@@ -3691,10 +3691,10 @@
         <v>3.4</v>
       </c>
       <c r="S20">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U20">
         <v>1.7</v>
@@ -3712,10 +3712,10 @@
         <v>1.83</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AA20">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AB20">
         <v>1.5</v>
@@ -3795,13 +3795,13 @@
         <v>4.5</v>
       </c>
       <c r="J21">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="K21">
         <v>4</v>
       </c>
       <c r="L21">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M21">
         <v>1.3</v>
@@ -3825,7 +3825,7 @@
         <v>1.7</v>
       </c>
       <c r="T21">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="U21">
         <v>1.67</v>
@@ -3843,10 +3843,10 @@
         <v>2.1</v>
       </c>
       <c r="Z21">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AA21">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AB21">
         <v>1.98</v>
@@ -3917,22 +3917,22 @@
         <v>196</v>
       </c>
       <c r="G22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="H22">
         <v>2.1</v>
       </c>
       <c r="I22">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="K22">
         <v>3.25</v>
       </c>
       <c r="L22">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
         <v>1.44</v>
@@ -3941,91 +3941,91 @@
         <v>2.63</v>
       </c>
       <c r="O22">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q22">
         <v>1.36</v>
       </c>
       <c r="R22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="S22">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W22">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X22">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Z22">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="AA22">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AB22">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AC22">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AD22">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="AE22">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AF22">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG22">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="AH22">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AI22">
-        <v>2.91</v>
+        <v>4.04</v>
       </c>
       <c r="AJ22">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AK22">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AL22">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AM22">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="AO22">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AP22">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="AQ22">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4048,22 +4048,22 @@
         <v>197</v>
       </c>
       <c r="G23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H23">
         <v>2.1</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="J23">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="K23">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="M23">
         <v>1.44</v>
@@ -4072,91 +4072,91 @@
         <v>2.63</v>
       </c>
       <c r="O23">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q23">
         <v>1.36</v>
       </c>
       <c r="R23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S23">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T23">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="U23">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X23">
+        <v>1.28</v>
+      </c>
+      <c r="Y23">
+        <v>1.5</v>
+      </c>
+      <c r="Z23">
+        <v>1.23</v>
+      </c>
+      <c r="AA23">
+        <v>1.23</v>
+      </c>
+      <c r="AB23">
         <v>1.25</v>
       </c>
-      <c r="Y23">
-        <v>1.78</v>
-      </c>
-      <c r="Z23">
-        <v>2</v>
-      </c>
-      <c r="AA23">
-        <v>1.25</v>
-      </c>
-      <c r="AB23">
-        <v>1.62</v>
-      </c>
       <c r="AC23">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AD23">
-        <v>2.94</v>
+        <v>2.54</v>
       </c>
       <c r="AE23">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AF23">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG23">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="AH23">
+        <v>1.41</v>
+      </c>
+      <c r="AI23">
+        <v>2.91</v>
+      </c>
+      <c r="AJ23">
+        <v>1.65</v>
+      </c>
+      <c r="AK23">
+        <v>2.13</v>
+      </c>
+      <c r="AL23">
+        <v>2.05</v>
+      </c>
+      <c r="AM23">
+        <v>1.7</v>
+      </c>
+      <c r="AN23">
+        <v>2.47</v>
+      </c>
+      <c r="AO23">
+        <v>1.52</v>
+      </c>
+      <c r="AP23">
+        <v>4.1</v>
+      </c>
+      <c r="AQ23">
         <v>1.24</v>
-      </c>
-      <c r="AI23">
-        <v>4.04</v>
-      </c>
-      <c r="AJ23">
-        <v>1.45</v>
-      </c>
-      <c r="AK23">
-        <v>2.75</v>
-      </c>
-      <c r="AL23">
-        <v>1.73</v>
-      </c>
-      <c r="AM23">
-        <v>2</v>
-      </c>
-      <c r="AN23">
-        <v>2</v>
-      </c>
-      <c r="AO23">
-        <v>1.74</v>
-      </c>
-      <c r="AP23">
-        <v>2.88</v>
-      </c>
-      <c r="AQ23">
-        <v>1.42</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4188,13 +4188,13 @@
         <v>5.5</v>
       </c>
       <c r="J24">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K24">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>1.29</v>
@@ -4215,10 +4215,10 @@
         <v>4.33</v>
       </c>
       <c r="S24">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="T24">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="U24">
         <v>1.75</v>
@@ -4236,10 +4236,10 @@
         <v>2.5</v>
       </c>
       <c r="Z24">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AA24">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AB24">
         <v>2.4</v>
@@ -4319,13 +4319,13 @@
         <v>3.75</v>
       </c>
       <c r="J25">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
         <v>1.44</v>
@@ -4346,10 +4346,10 @@
         <v>3.1</v>
       </c>
       <c r="S25">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
         <v>1.8</v>
@@ -4367,10 +4367,10 @@
         <v>1.66</v>
       </c>
       <c r="Z25">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AA25">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AB25">
         <v>1.41</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>45389</v>
@@ -4432,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>121</v>
@@ -4441,120 +4441,120 @@
         <v>200</v>
       </c>
       <c r="G26">
+        <v>4.33</v>
+      </c>
+      <c r="H26">
+        <v>2.25</v>
+      </c>
+      <c r="I26">
         <v>2.5</v>
       </c>
-      <c r="H26">
+      <c r="J26">
+        <v>4.2</v>
+      </c>
+      <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>1.83</v>
+      </c>
+      <c r="M26">
+        <v>1.36</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>1.04</v>
+      </c>
+      <c r="P26">
+        <v>13</v>
+      </c>
+      <c r="Q26">
+        <v>1.26</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>1.78</v>
+      </c>
+      <c r="T26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>4.75</v>
-      </c>
-      <c r="J26">
+      <c r="U26">
+        <v>1.7</v>
+      </c>
+      <c r="V26">
+        <v>2.05</v>
+      </c>
+      <c r="W26">
+        <v>1.92</v>
+      </c>
+      <c r="X26">
+        <v>1.24</v>
+      </c>
+      <c r="Y26">
+        <v>1.26</v>
+      </c>
+      <c r="Z26">
+        <v>1.44</v>
+      </c>
+      <c r="AA26">
+        <v>1.63</v>
+      </c>
+      <c r="AB26">
+        <v>1.3</v>
+      </c>
+      <c r="AC26">
+        <v>1.4</v>
+      </c>
+      <c r="AD26">
+        <v>2.7</v>
+      </c>
+      <c r="AE26">
+        <v>2.6</v>
+      </c>
+      <c r="AF26">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG26">
+        <v>1.68</v>
+      </c>
+      <c r="AH26">
+        <v>1.29</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AJ26">
+        <v>1.55</v>
+      </c>
+      <c r="AK26">
+        <v>2.23</v>
+      </c>
+      <c r="AL26">
+        <v>1.92</v>
+      </c>
+      <c r="AM26">
         <v>1.77</v>
       </c>
-      <c r="K26">
-        <v>3.25</v>
-      </c>
-      <c r="L26">
-        <v>4.05</v>
-      </c>
-      <c r="M26">
-        <v>1.49</v>
-      </c>
-      <c r="N26">
-        <v>2.45</v>
-      </c>
-      <c r="O26">
-        <v>1.05</v>
-      </c>
-      <c r="P26">
-        <v>7.3</v>
-      </c>
-      <c r="Q26">
-        <v>1.42</v>
-      </c>
-      <c r="R26">
-        <v>2.75</v>
-      </c>
-      <c r="S26">
-        <v>2.2</v>
-      </c>
-      <c r="T26">
-        <v>1.55</v>
-      </c>
-      <c r="U26">
-        <v>2.05</v>
-      </c>
-      <c r="V26">
-        <v>1.72</v>
-      </c>
-      <c r="W26">
-        <v>1.12</v>
-      </c>
-      <c r="X26">
-        <v>1.3</v>
-      </c>
-      <c r="Y26">
-        <v>1.97</v>
-      </c>
-      <c r="Z26">
-        <v>2.23</v>
-      </c>
-      <c r="AA26">
-        <v>1.08</v>
-      </c>
-      <c r="AB26">
-        <v>1.59</v>
-      </c>
-      <c r="AC26">
-        <v>1.32</v>
-      </c>
-      <c r="AD26">
-        <v>2.91</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>1.22</v>
-      </c>
-      <c r="AI26">
-        <v>3.8</v>
-      </c>
-      <c r="AJ26">
-        <v>1.38</v>
-      </c>
-      <c r="AK26">
-        <v>2.8</v>
-      </c>
-      <c r="AL26">
-        <v>1.63</v>
-      </c>
-      <c r="AM26">
-        <v>2.23</v>
-      </c>
       <c r="AN26">
-        <v>2.02</v>
+        <v>2.43</v>
       </c>
       <c r="AO26">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AQ26">
-        <v>1.48</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>45389</v>
@@ -4563,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
@@ -4572,115 +4572,115 @@
         <v>201</v>
       </c>
       <c r="G27">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="H27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I27">
+        <v>4.75</v>
+      </c>
+      <c r="J27">
+        <v>1.7</v>
+      </c>
+      <c r="K27">
+        <v>3.4</v>
+      </c>
+      <c r="L27">
+        <v>4.5</v>
+      </c>
+      <c r="M27">
+        <v>1.49</v>
+      </c>
+      <c r="N27">
+        <v>2.45</v>
+      </c>
+      <c r="O27">
+        <v>1.05</v>
+      </c>
+      <c r="P27">
+        <v>7.3</v>
+      </c>
+      <c r="Q27">
+        <v>1.42</v>
+      </c>
+      <c r="R27">
+        <v>2.75</v>
+      </c>
+      <c r="S27">
+        <v>2.2</v>
+      </c>
+      <c r="T27">
+        <v>1.6</v>
+      </c>
+      <c r="U27">
+        <v>2.05</v>
+      </c>
+      <c r="V27">
+        <v>1.72</v>
+      </c>
+      <c r="W27">
+        <v>1.12</v>
+      </c>
+      <c r="X27">
+        <v>1.3</v>
+      </c>
+      <c r="Y27">
+        <v>1.97</v>
+      </c>
+      <c r="Z27">
+        <v>2.07</v>
+      </c>
+      <c r="AA27">
+        <v>1.21</v>
+      </c>
+      <c r="AB27">
+        <v>1.59</v>
+      </c>
+      <c r="AC27">
+        <v>1.32</v>
+      </c>
+      <c r="AD27">
+        <v>2.91</v>
+      </c>
+      <c r="AE27">
+        <v>1.47</v>
+      </c>
+      <c r="AF27">
+        <v>9.5</v>
+      </c>
+      <c r="AG27">
+        <v>3.12</v>
+      </c>
+      <c r="AH27">
+        <v>1.22</v>
+      </c>
+      <c r="AI27">
+        <v>3.8</v>
+      </c>
+      <c r="AJ27">
+        <v>1.38</v>
+      </c>
+      <c r="AK27">
+        <v>2.8</v>
+      </c>
+      <c r="AL27">
+        <v>1.63</v>
+      </c>
+      <c r="AM27">
+        <v>2.23</v>
+      </c>
+      <c r="AN27">
+        <v>2.02</v>
+      </c>
+      <c r="AO27">
+        <v>1.76</v>
+      </c>
+      <c r="AP27">
         <v>2.5</v>
       </c>
-      <c r="J27">
-        <v>3.9</v>
-      </c>
-      <c r="K27">
-        <v>3.95</v>
-      </c>
-      <c r="L27">
-        <v>1.88</v>
-      </c>
-      <c r="M27">
-        <v>1.36</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>1.04</v>
-      </c>
-      <c r="P27">
-        <v>13</v>
-      </c>
-      <c r="Q27">
-        <v>1.26</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="S27">
-        <v>1.68</v>
-      </c>
-      <c r="T27">
-        <v>2.08</v>
-      </c>
-      <c r="U27">
-        <v>1.7</v>
-      </c>
-      <c r="V27">
-        <v>2.05</v>
-      </c>
-      <c r="W27">
-        <v>1.92</v>
-      </c>
-      <c r="X27">
-        <v>1.24</v>
-      </c>
-      <c r="Y27">
-        <v>1.26</v>
-      </c>
-      <c r="Z27">
-        <v>1.53</v>
-      </c>
-      <c r="AA27">
-        <v>1.53</v>
-      </c>
-      <c r="AB27">
-        <v>1.3</v>
-      </c>
-      <c r="AC27">
-        <v>1.4</v>
-      </c>
-      <c r="AD27">
-        <v>2.7</v>
-      </c>
-      <c r="AE27">
-        <v>2.6</v>
-      </c>
-      <c r="AF27">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG27">
-        <v>1.68</v>
-      </c>
-      <c r="AH27">
-        <v>1.29</v>
-      </c>
-      <c r="AI27">
-        <v>3</v>
-      </c>
-      <c r="AJ27">
-        <v>1.55</v>
-      </c>
-      <c r="AK27">
-        <v>2.23</v>
-      </c>
-      <c r="AL27">
-        <v>1.92</v>
-      </c>
-      <c r="AM27">
-        <v>1.77</v>
-      </c>
-      <c r="AN27">
-        <v>2.43</v>
-      </c>
-      <c r="AO27">
-        <v>1.45</v>
-      </c>
-      <c r="AP27">
-        <v>3.2</v>
-      </c>
       <c r="AQ27">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4703,115 +4703,115 @@
         <v>202</v>
       </c>
       <c r="G28">
+        <v>2.38</v>
+      </c>
+      <c r="H28">
+        <v>2.3</v>
+      </c>
+      <c r="I28">
+        <v>4.5</v>
+      </c>
+      <c r="J28">
+        <v>1.78</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1.33</v>
+      </c>
+      <c r="N28">
+        <v>3.25</v>
+      </c>
+      <c r="O28">
+        <v>1.04</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="Q28">
+        <v>1.24</v>
+      </c>
+      <c r="R28">
+        <v>4.2</v>
+      </c>
+      <c r="S28">
+        <v>1.7</v>
+      </c>
+      <c r="T28">
+        <v>2.1</v>
+      </c>
+      <c r="U28">
+        <v>1.67</v>
+      </c>
+      <c r="V28">
+        <v>2.1</v>
+      </c>
+      <c r="W28">
+        <v>1.22</v>
+      </c>
+      <c r="X28">
+        <v>1.22</v>
+      </c>
+      <c r="Y28">
+        <v>2.05</v>
+      </c>
+      <c r="Z28">
+        <v>1.13</v>
+      </c>
+      <c r="AA28">
+        <v>0.93</v>
+      </c>
+      <c r="AB28">
+        <v>1.64</v>
+      </c>
+      <c r="AC28">
+        <v>1.09</v>
+      </c>
+      <c r="AD28">
+        <v>2.73</v>
+      </c>
+      <c r="AE28">
+        <v>1.52</v>
+      </c>
+      <c r="AF28">
+        <v>8</v>
+      </c>
+      <c r="AG28">
+        <v>3.05</v>
+      </c>
+      <c r="AH28">
+        <v>1.28</v>
+      </c>
+      <c r="AI28">
         <v>3.1</v>
       </c>
-      <c r="H28">
-        <v>2.1</v>
-      </c>
-      <c r="I28">
-        <v>3.5</v>
-      </c>
-      <c r="J28">
-        <v>2.46</v>
-      </c>
-      <c r="K28">
-        <v>3.5</v>
-      </c>
-      <c r="L28">
-        <v>2.79</v>
-      </c>
-      <c r="M28">
-        <v>1.44</v>
-      </c>
-      <c r="N28">
-        <v>2.63</v>
-      </c>
-      <c r="O28">
-        <v>1.07</v>
-      </c>
-      <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28">
-        <v>1.3</v>
-      </c>
-      <c r="R28">
-        <v>3.3</v>
-      </c>
-      <c r="S28">
-        <v>2.02</v>
-      </c>
-      <c r="T28">
-        <v>1.72</v>
-      </c>
-      <c r="U28">
+      <c r="AJ28">
+        <v>1.52</v>
+      </c>
+      <c r="AK28">
+        <v>2.28</v>
+      </c>
+      <c r="AL28">
+        <v>1.89</v>
+      </c>
+      <c r="AM28">
         <v>1.8</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
-      <c r="W28">
-        <v>1.44</v>
-      </c>
-      <c r="X28">
-        <v>1.28</v>
-      </c>
-      <c r="Y28">
-        <v>1.58</v>
-      </c>
-      <c r="Z28">
-        <v>1.54</v>
-      </c>
-      <c r="AA28">
-        <v>1.38</v>
-      </c>
-      <c r="AB28">
-        <v>1.51</v>
-      </c>
-      <c r="AC28">
-        <v>1.36</v>
-      </c>
-      <c r="AD28">
-        <v>2.87</v>
-      </c>
-      <c r="AE28">
-        <v>1.95</v>
-      </c>
-      <c r="AF28">
-        <v>7.5</v>
-      </c>
-      <c r="AG28">
-        <v>2.12</v>
-      </c>
-      <c r="AH28">
-        <v>1.32</v>
-      </c>
-      <c r="AI28">
-        <v>2.9</v>
-      </c>
-      <c r="AJ28">
-        <v>1.58</v>
-      </c>
-      <c r="AK28">
-        <v>2.16</v>
-      </c>
-      <c r="AL28">
-        <v>2</v>
-      </c>
-      <c r="AM28">
-        <v>1.7</v>
-      </c>
       <c r="AN28">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AO28">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AP28">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="AQ28">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4834,115 +4834,115 @@
         <v>203</v>
       </c>
       <c r="G29">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H29">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I29">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="K29">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>4.65</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O29">
         <v>1.04</v>
       </c>
       <c r="P29">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Q29">
+        <v>1.29</v>
+      </c>
+      <c r="R29">
+        <v>3.8</v>
+      </c>
+      <c r="S29">
+        <v>1.85</v>
+      </c>
+      <c r="T29">
+        <v>1.91</v>
+      </c>
+      <c r="U29">
+        <v>1.7</v>
+      </c>
+      <c r="V29">
+        <v>2.05</v>
+      </c>
+      <c r="W29">
+        <v>1.3</v>
+      </c>
+      <c r="X29">
+        <v>1.25</v>
+      </c>
+      <c r="Y29">
+        <v>1.83</v>
+      </c>
+      <c r="Z29">
+        <v>1.07</v>
+      </c>
+      <c r="AA29">
+        <v>1.07</v>
+      </c>
+      <c r="AB29">
+        <v>1.45</v>
+      </c>
+      <c r="AC29">
+        <v>1.14</v>
+      </c>
+      <c r="AD29">
+        <v>2.59</v>
+      </c>
+      <c r="AE29">
+        <v>1.68</v>
+      </c>
+      <c r="AF29">
+        <v>7.5</v>
+      </c>
+      <c r="AG29">
+        <v>2.55</v>
+      </c>
+      <c r="AH29">
+        <v>1.3</v>
+      </c>
+      <c r="AI29">
+        <v>2.95</v>
+      </c>
+      <c r="AJ29">
+        <v>1.56</v>
+      </c>
+      <c r="AK29">
+        <v>2.2</v>
+      </c>
+      <c r="AL29">
+        <v>1.96</v>
+      </c>
+      <c r="AM29">
+        <v>1.74</v>
+      </c>
+      <c r="AN29">
+        <v>2.5</v>
+      </c>
+      <c r="AO29">
+        <v>1.43</v>
+      </c>
+      <c r="AP29">
+        <v>3.35</v>
+      </c>
+      <c r="AQ29">
         <v>1.24</v>
-      </c>
-      <c r="R29">
-        <v>4.2</v>
-      </c>
-      <c r="S29">
-        <v>1.72</v>
-      </c>
-      <c r="T29">
-        <v>2.04</v>
-      </c>
-      <c r="U29">
-        <v>1.67</v>
-      </c>
-      <c r="V29">
-        <v>2.1</v>
-      </c>
-      <c r="W29">
-        <v>1.22</v>
-      </c>
-      <c r="X29">
-        <v>1.22</v>
-      </c>
-      <c r="Y29">
-        <v>2.05</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>1.64</v>
-      </c>
-      <c r="AC29">
-        <v>1.09</v>
-      </c>
-      <c r="AD29">
-        <v>2.73</v>
-      </c>
-      <c r="AE29">
-        <v>1.52</v>
-      </c>
-      <c r="AF29">
-        <v>8</v>
-      </c>
-      <c r="AG29">
-        <v>3.05</v>
-      </c>
-      <c r="AH29">
-        <v>1.28</v>
-      </c>
-      <c r="AI29">
-        <v>3.1</v>
-      </c>
-      <c r="AJ29">
-        <v>1.52</v>
-      </c>
-      <c r="AK29">
-        <v>2.28</v>
-      </c>
-      <c r="AL29">
-        <v>1.89</v>
-      </c>
-      <c r="AM29">
-        <v>1.8</v>
-      </c>
-      <c r="AN29">
-        <v>2.4</v>
-      </c>
-      <c r="AO29">
-        <v>1.47</v>
-      </c>
-      <c r="AP29">
-        <v>3.2</v>
-      </c>
-      <c r="AQ29">
-        <v>1.26</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4974,13 +4974,13 @@
         <v>3.1</v>
       </c>
       <c r="J30">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="K30">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L30">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M30">
         <v>1.33</v>
@@ -5001,10 +5001,10 @@
         <v>3.7</v>
       </c>
       <c r="S30">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="U30">
         <v>1.57</v>
@@ -5022,10 +5022,10 @@
         <v>1.37</v>
       </c>
       <c r="Z30">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AA30">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AB30">
         <v>1.55</v>
@@ -5046,10 +5046,10 @@
         <v>2.05</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ30">
         <v>1.3</v>
@@ -5105,13 +5105,13 @@
         <v>4</v>
       </c>
       <c r="J31">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="K31">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
         <v>1.3</v>
@@ -5132,10 +5132,10 @@
         <v>3.9</v>
       </c>
       <c r="S31">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T31">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U31">
         <v>1.6</v>
@@ -5153,10 +5153,10 @@
         <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AA31">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AB31">
         <v>1.15</v>
@@ -5177,16 +5177,16 @@
         <v>2.32</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AL31">
         <v>1.32</v>
@@ -5236,13 +5236,13 @@
         <v>4.5</v>
       </c>
       <c r="J32">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="K32">
         <v>3.4</v>
       </c>
       <c r="L32">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
         <v>1.44</v>
@@ -5263,10 +5263,10 @@
         <v>3.1</v>
       </c>
       <c r="S32">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U32">
         <v>1.91</v>
@@ -5284,10 +5284,10 @@
         <v>1.88</v>
       </c>
       <c r="Z32">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AA32">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AB32">
         <v>1.49</v>
@@ -5367,13 +5367,13 @@
         <v>3.3</v>
       </c>
       <c r="J33">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="K33">
         <v>3.5</v>
       </c>
       <c r="L33">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="M33">
         <v>1.35</v>
@@ -5394,10 +5394,10 @@
         <v>3.75</v>
       </c>
       <c r="S33">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T33">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U33">
         <v>1.65</v>
@@ -5415,10 +5415,10 @@
         <v>1.52</v>
       </c>
       <c r="Z33">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AA33">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AB33">
         <v>1.65</v>
@@ -5489,115 +5489,115 @@
         <v>208</v>
       </c>
       <c r="G34">
+        <v>3.1</v>
+      </c>
+      <c r="H34">
+        <v>2.1</v>
+      </c>
+      <c r="I34">
+        <v>3.5</v>
+      </c>
+      <c r="J34">
+        <v>2.4</v>
+      </c>
+      <c r="K34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>1.44</v>
+      </c>
+      <c r="N34">
         <v>2.63</v>
       </c>
-      <c r="H34">
-        <v>2.2</v>
-      </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <v>2.05</v>
-      </c>
-      <c r="K34">
-        <v>3.8</v>
-      </c>
-      <c r="L34">
-        <v>3.35</v>
-      </c>
-      <c r="M34">
+      <c r="O34">
+        <v>1.07</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <v>1.3</v>
+      </c>
+      <c r="R34">
+        <v>3.3</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>1.78</v>
+      </c>
+      <c r="U34">
+        <v>1.8</v>
+      </c>
+      <c r="V34">
+        <v>1.95</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>1.28</v>
+      </c>
+      <c r="Y34">
+        <v>1.58</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+      <c r="AA34">
         <v>1.36</v>
       </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>1.04</v>
-      </c>
-      <c r="P34">
-        <v>11.5</v>
-      </c>
-      <c r="Q34">
-        <v>1.29</v>
-      </c>
-      <c r="R34">
-        <v>3.8</v>
-      </c>
-      <c r="S34">
-        <v>1.86</v>
-      </c>
-      <c r="T34">
-        <v>2.02</v>
-      </c>
-      <c r="U34">
-        <v>1.7</v>
-      </c>
-      <c r="V34">
-        <v>2.05</v>
-      </c>
-      <c r="W34">
-        <v>1.3</v>
-      </c>
-      <c r="X34">
-        <v>1.25</v>
-      </c>
-      <c r="Y34">
-        <v>1.83</v>
-      </c>
-      <c r="Z34">
-        <v>1.08</v>
-      </c>
-      <c r="AA34">
-        <v>1.08</v>
-      </c>
       <c r="AB34">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AC34">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="AD34">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="AE34">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AF34">
         <v>7.5</v>
       </c>
       <c r="AG34">
+        <v>2.12</v>
+      </c>
+      <c r="AH34">
+        <v>1.32</v>
+      </c>
+      <c r="AI34">
+        <v>2.9</v>
+      </c>
+      <c r="AJ34">
+        <v>1.58</v>
+      </c>
+      <c r="AK34">
+        <v>2.16</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>1.7</v>
+      </c>
+      <c r="AN34">
         <v>2.55</v>
       </c>
-      <c r="AH34">
-        <v>1.3</v>
-      </c>
-      <c r="AI34">
-        <v>2.95</v>
-      </c>
-      <c r="AJ34">
-        <v>1.56</v>
-      </c>
-      <c r="AK34">
-        <v>2.2</v>
-      </c>
-      <c r="AL34">
-        <v>1.96</v>
-      </c>
-      <c r="AM34">
-        <v>1.74</v>
-      </c>
-      <c r="AN34">
-        <v>2.5</v>
-      </c>
       <c r="AO34">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AP34">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AQ34">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5629,13 +5629,13 @@
         <v>3.25</v>
       </c>
       <c r="J35">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K35">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="M35">
         <v>1.25</v>
@@ -5656,10 +5656,10 @@
         <v>5</v>
       </c>
       <c r="S35">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T35">
-        <v>2.51</v>
+        <v>2.82</v>
       </c>
       <c r="U35">
         <v>1.44</v>
@@ -5677,10 +5677,10 @@
         <v>1.7</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AA35">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AB35">
         <v>1.48</v>
@@ -5760,13 +5760,13 @@
         <v>3.45</v>
       </c>
       <c r="J36">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="K36">
-        <v>3.54</v>
+        <v>3.13</v>
       </c>
       <c r="L36">
-        <v>3.24</v>
+        <v>2.77</v>
       </c>
       <c r="M36">
         <v>1.38</v>
@@ -5787,7 +5787,7 @@
         <v>3.55</v>
       </c>
       <c r="S36">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>1.94</v>
@@ -5808,10 +5808,10 @@
         <v>1.57</v>
       </c>
       <c r="Z36">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="AB36">
         <v>1.16</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="2">
         <v>45389</v>
@@ -5873,7 +5873,7 @@
         <v>81</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>132</v>
@@ -5882,120 +5882,120 @@
         <v>211</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
+        <v>2.15</v>
+      </c>
+      <c r="I37">
+        <v>2.85</v>
+      </c>
+      <c r="J37">
+        <v>2.8</v>
+      </c>
+      <c r="K37">
+        <v>3.3</v>
+      </c>
+      <c r="L37">
+        <v>2.38</v>
+      </c>
+      <c r="M37">
+        <v>1.33</v>
+      </c>
+      <c r="N37">
+        <v>3.31</v>
+      </c>
+      <c r="O37">
+        <v>1.04</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>1.22</v>
+      </c>
+      <c r="R37">
+        <v>4.2</v>
+      </c>
+      <c r="S37">
+        <v>1.73</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1.55</v>
+      </c>
+      <c r="V37">
+        <v>2.25</v>
+      </c>
+      <c r="W37">
+        <v>1.62</v>
+      </c>
+      <c r="X37">
+        <v>1.28</v>
+      </c>
+      <c r="Y37">
+        <v>1.42</v>
+      </c>
+      <c r="Z37">
+        <v>2.08</v>
+      </c>
+      <c r="AA37">
+        <v>1.92</v>
+      </c>
+      <c r="AB37">
+        <v>1.79</v>
+      </c>
+      <c r="AC37">
+        <v>1.62</v>
+      </c>
+      <c r="AD37">
+        <v>3.41</v>
+      </c>
+      <c r="AE37">
+        <v>1.75</v>
+      </c>
+      <c r="AF37">
+        <v>8</v>
+      </c>
+      <c r="AG37">
+        <v>2.44</v>
+      </c>
+      <c r="AH37">
+        <v>1.24</v>
+      </c>
+      <c r="AI37">
+        <v>4.01</v>
+      </c>
+      <c r="AJ37">
+        <v>1.4</v>
+      </c>
+      <c r="AK37">
         <v>2.75</v>
       </c>
-      <c r="I37">
-        <v>1.5</v>
-      </c>
-      <c r="J37">
-        <v>11.9</v>
-      </c>
-      <c r="K37">
-        <v>6.64</v>
-      </c>
-      <c r="L37">
-        <v>1.14</v>
-      </c>
-      <c r="M37">
-        <v>1.23</v>
-      </c>
-      <c r="N37">
-        <v>3.7</v>
-      </c>
-      <c r="O37">
-        <v>1.02</v>
-      </c>
-      <c r="P37">
-        <v>13.5</v>
-      </c>
-      <c r="Q37">
-        <v>1.13</v>
-      </c>
-      <c r="R37">
-        <v>5</v>
-      </c>
-      <c r="S37">
-        <v>1.37</v>
-      </c>
-      <c r="T37">
-        <v>2.85</v>
-      </c>
-      <c r="U37">
-        <v>2.33</v>
-      </c>
-      <c r="V37">
-        <v>1.57</v>
-      </c>
-      <c r="W37">
-        <v>4.4</v>
-      </c>
-      <c r="X37">
-        <v>1.08</v>
-      </c>
-      <c r="Y37">
-        <v>1.03</v>
-      </c>
-      <c r="Z37">
-        <v>0.5</v>
-      </c>
-      <c r="AA37">
-        <v>2.36</v>
-      </c>
-      <c r="AB37">
-        <v>1.29</v>
-      </c>
-      <c r="AC37">
-        <v>1.97</v>
-      </c>
-      <c r="AD37">
-        <v>3.26</v>
-      </c>
-      <c r="AE37">
-        <v>7.6</v>
-      </c>
-      <c r="AF37">
-        <v>12</v>
-      </c>
-      <c r="AG37">
-        <v>1.12</v>
-      </c>
-      <c r="AH37">
-        <v>1.34</v>
-      </c>
-      <c r="AI37">
-        <v>2.88</v>
-      </c>
-      <c r="AJ37">
-        <v>1.62</v>
-      </c>
-      <c r="AK37">
-        <v>2.1</v>
-      </c>
       <c r="AL37">
+        <v>1.73</v>
+      </c>
+      <c r="AM37">
+        <v>2</v>
+      </c>
+      <c r="AN37">
         <v>2.05</v>
       </c>
-      <c r="AM37">
-        <v>1.65</v>
-      </c>
-      <c r="AN37">
-        <v>2.71</v>
-      </c>
       <c r="AO37">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AP37">
-        <v>3.74</v>
+        <v>2.65</v>
       </c>
       <c r="AQ37">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
         <v>45389</v>
@@ -6004,7 +6004,7 @@
         <v>81</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
         <v>133</v>
@@ -6013,115 +6013,115 @@
         <v>212</v>
       </c>
       <c r="G38">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="H38">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="I38">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="J38">
-        <v>2.69</v>
+        <v>26</v>
       </c>
       <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>1.06</v>
+      </c>
+      <c r="M38">
+        <v>1.23</v>
+      </c>
+      <c r="N38">
         <v>3.7</v>
       </c>
-      <c r="L38">
-        <v>2.29</v>
-      </c>
-      <c r="M38">
-        <v>1.33</v>
-      </c>
-      <c r="N38">
-        <v>3.31</v>
-      </c>
       <c r="O38">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="Q38">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="R38">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="S38">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="U38">
-        <v>1.55</v>
+        <v>2.33</v>
       </c>
       <c r="V38">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="W38">
+        <v>4.4</v>
+      </c>
+      <c r="X38">
+        <v>1.08</v>
+      </c>
+      <c r="Y38">
+        <v>1.03</v>
+      </c>
+      <c r="Z38">
+        <v>0.47</v>
+      </c>
+      <c r="AA38">
+        <v>2.4</v>
+      </c>
+      <c r="AB38">
+        <v>1.29</v>
+      </c>
+      <c r="AC38">
+        <v>1.97</v>
+      </c>
+      <c r="AD38">
+        <v>3.26</v>
+      </c>
+      <c r="AE38">
+        <v>7.6</v>
+      </c>
+      <c r="AF38">
+        <v>12</v>
+      </c>
+      <c r="AG38">
+        <v>1.12</v>
+      </c>
+      <c r="AH38">
+        <v>1.34</v>
+      </c>
+      <c r="AI38">
+        <v>2.88</v>
+      </c>
+      <c r="AJ38">
         <v>1.62</v>
       </c>
-      <c r="X38">
-        <v>1.28</v>
-      </c>
-      <c r="Y38">
-        <v>1.42</v>
-      </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AA38">
-        <v>2.09</v>
-      </c>
-      <c r="AB38">
-        <v>1.79</v>
-      </c>
-      <c r="AC38">
-        <v>1.62</v>
-      </c>
-      <c r="AD38">
-        <v>3.41</v>
-      </c>
-      <c r="AE38">
-        <v>1.75</v>
-      </c>
-      <c r="AF38">
-        <v>8</v>
-      </c>
-      <c r="AG38">
-        <v>2.44</v>
-      </c>
-      <c r="AH38">
-        <v>1.24</v>
-      </c>
-      <c r="AI38">
-        <v>4.01</v>
-      </c>
-      <c r="AJ38">
-        <v>1.4</v>
-      </c>
       <c r="AK38">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="AL38">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AM38">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AN38">
-        <v>2.05</v>
+        <v>2.71</v>
       </c>
       <c r="AO38">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AP38">
-        <v>2.65</v>
+        <v>3.74</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -6153,13 +6153,13 @@
         <v>1.62</v>
       </c>
       <c r="J39">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L39">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M39">
         <v>1.3</v>
@@ -6183,7 +6183,7 @@
         <v>1.62</v>
       </c>
       <c r="T39">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U39">
         <v>2.38</v>
@@ -6201,10 +6201,10 @@
         <v>1.02</v>
       </c>
       <c r="Z39">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AA39">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AB39">
         <v>1.12</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2">
         <v>45389</v>
@@ -6266,7 +6266,7 @@
         <v>82</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
         <v>135</v>
@@ -6275,37 +6275,37 @@
         <v>214</v>
       </c>
       <c r="G40">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="I40">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="J40">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="M40">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="N40">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O40">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q40">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="R40">
         <v>2.8</v>
@@ -6314,76 +6314,76 @@
         <v>2.2</v>
       </c>
       <c r="T40">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U40">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
         <v>1.83</v>
       </c>
       <c r="W40">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="X40">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="Y40">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="Z40">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AA40">
-        <v>1.6</v>
+        <v>0.65</v>
       </c>
       <c r="AB40">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AC40">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AD40">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AE40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AF40">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG40">
         <v>2.1</v>
       </c>
       <c r="AH40">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AI40">
-        <v>3.34</v>
+        <v>2.95</v>
       </c>
       <c r="AJ40">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AK40">
-        <v>2.39</v>
+        <v>2.16</v>
       </c>
       <c r="AL40">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AM40">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AN40">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="AO40">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AP40">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6406,120 +6406,120 @@
         <v>215</v>
       </c>
       <c r="G41">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H41">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="I41">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J41">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="K41">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>2.49</v>
+        <v>2.88</v>
       </c>
       <c r="M41">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="O41">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q41">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R41">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S41">
         <v>2.38</v>
       </c>
       <c r="T41">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V41">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X41">
         <v>1.3</v>
       </c>
       <c r="Y41">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z41">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AA41">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AB41">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AC41">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AD41">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="AE41">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AF41">
         <v>7.5</v>
       </c>
       <c r="AG41">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH41">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AI41">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AJ41">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AK41">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AL41">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AM41">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AN41">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AO41">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AP41">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AQ41">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
         <v>45389</v>
@@ -6528,7 +6528,7 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>137</v>
@@ -6537,120 +6537,120 @@
         <v>216</v>
       </c>
       <c r="G42">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="H42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="J42">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="K42">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M42">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="N42">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="O42">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="P42">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R42">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S42">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T42">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="U42">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V42">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W42">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="X42">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="Y42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z42">
+        <v>1.19</v>
+      </c>
+      <c r="AA42">
         <v>1.56</v>
       </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
       <c r="AB42">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AC42">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AD42">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AE42">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AF42">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG42">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AH42">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AI42">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="AJ42">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AK42">
-        <v>2.05</v>
+        <v>2.39</v>
       </c>
       <c r="AL42">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="AM42">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AN42">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="AO42">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AP42">
-        <v>3.9</v>
+        <v>3.28</v>
       </c>
       <c r="AQ42">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
         <v>45389</v>
@@ -6659,7 +6659,7 @@
         <v>83</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>138</v>
@@ -6668,120 +6668,120 @@
         <v>217</v>
       </c>
       <c r="G43">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="H43">
+        <v>2.63</v>
+      </c>
+      <c r="I43">
         <v>2.2</v>
       </c>
-      <c r="I43">
-        <v>3.2</v>
-      </c>
       <c r="J43">
+        <v>4.33</v>
+      </c>
+      <c r="K43">
+        <v>4.75</v>
+      </c>
+      <c r="L43">
+        <v>1.62</v>
+      </c>
+      <c r="M43">
+        <v>1.2</v>
+      </c>
+      <c r="N43">
+        <v>4.33</v>
+      </c>
+      <c r="O43">
+        <v>1.01</v>
+      </c>
+      <c r="P43">
+        <v>26</v>
+      </c>
+      <c r="Q43">
+        <v>1.08</v>
+      </c>
+      <c r="R43">
+        <v>6.1</v>
+      </c>
+      <c r="S43">
+        <v>1.3</v>
+      </c>
+      <c r="T43">
+        <v>3.33</v>
+      </c>
+      <c r="U43">
+        <v>1.4</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>2.21</v>
+      </c>
+      <c r="X43">
+        <v>1.21</v>
+      </c>
+      <c r="Y43">
+        <v>1.24</v>
+      </c>
+      <c r="Z43">
+        <v>1.73</v>
+      </c>
+      <c r="AA43">
+        <v>1.93</v>
+      </c>
+      <c r="AB43">
+        <v>1.7</v>
+      </c>
+      <c r="AC43">
+        <v>1.53</v>
+      </c>
+      <c r="AD43">
+        <v>3.23</v>
+      </c>
+      <c r="AE43">
+        <v>2.65</v>
+      </c>
+      <c r="AF43">
+        <v>8.5</v>
+      </c>
+      <c r="AG43">
+        <v>1.61</v>
+      </c>
+      <c r="AH43">
+        <v>1.11</v>
+      </c>
+      <c r="AI43">
+        <v>5.4</v>
+      </c>
+      <c r="AJ43">
+        <v>1.2</v>
+      </c>
+      <c r="AK43">
+        <v>3.75</v>
+      </c>
+      <c r="AL43">
+        <v>1.36</v>
+      </c>
+      <c r="AM43">
         <v>2.7</v>
       </c>
-      <c r="K43">
-        <v>3.55</v>
-      </c>
-      <c r="L43">
-        <v>2.5</v>
-      </c>
-      <c r="M43">
-        <v>1.36</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
-      <c r="O43">
-        <v>1.03</v>
-      </c>
-      <c r="P43">
-        <v>10.5</v>
-      </c>
-      <c r="Q43">
-        <v>1.29</v>
-      </c>
-      <c r="R43">
-        <v>3.4</v>
-      </c>
-      <c r="S43">
-        <v>1.84</v>
-      </c>
-      <c r="T43">
-        <v>1.97</v>
-      </c>
-      <c r="U43">
-        <v>1.67</v>
-      </c>
-      <c r="V43">
+      <c r="AN43">
+        <v>1.62</v>
+      </c>
+      <c r="AO43">
         <v>2.1</v>
       </c>
-      <c r="W43">
-        <v>1.4</v>
-      </c>
-      <c r="X43">
-        <v>1.32</v>
-      </c>
-      <c r="Y43">
-        <v>1.47</v>
-      </c>
-      <c r="Z43">
-        <v>1.87</v>
-      </c>
-      <c r="AA43">
-        <v>0.6</v>
-      </c>
-      <c r="AB43">
-        <v>1.45</v>
-      </c>
-      <c r="AC43">
-        <v>1.35</v>
-      </c>
-      <c r="AD43">
-        <v>2.8</v>
-      </c>
-      <c r="AE43">
-        <v>2.05</v>
-      </c>
-      <c r="AF43">
-        <v>8</v>
-      </c>
-      <c r="AG43">
-        <v>1.95</v>
-      </c>
-      <c r="AH43">
-        <v>1.14</v>
-      </c>
-      <c r="AI43">
-        <v>4.55</v>
-      </c>
-      <c r="AJ43">
-        <v>1.3</v>
-      </c>
-      <c r="AK43">
-        <v>3.08</v>
-      </c>
-      <c r="AL43">
-        <v>1.56</v>
-      </c>
-      <c r="AM43">
-        <v>2.27</v>
-      </c>
-      <c r="AN43">
-        <v>1.95</v>
-      </c>
-      <c r="AO43">
-        <v>1.8</v>
-      </c>
       <c r="AP43">
-        <v>2.49</v>
+        <v>1.98</v>
       </c>
       <c r="AQ43">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>45389</v>
@@ -6790,7 +6790,7 @@
         <v>83</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
         <v>139</v>
@@ -6799,120 +6799,120 @@
         <v>218</v>
       </c>
       <c r="G44">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="H44">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3.4</v>
+      </c>
+      <c r="K44">
         <v>3.1</v>
       </c>
-      <c r="J44">
-        <v>2.46</v>
-      </c>
-      <c r="K44">
-        <v>3.85</v>
-      </c>
       <c r="L44">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M44">
+        <v>1.45</v>
+      </c>
+      <c r="N44">
+        <v>2.75</v>
+      </c>
+      <c r="O44">
+        <v>1.08</v>
+      </c>
+      <c r="P44">
+        <v>6.5</v>
+      </c>
+      <c r="Q44">
+        <v>1.35</v>
+      </c>
+      <c r="R44">
+        <v>2.9</v>
+      </c>
+      <c r="S44">
+        <v>2.1</v>
+      </c>
+      <c r="T44">
+        <v>1.65</v>
+      </c>
+      <c r="U44">
+        <v>1.83</v>
+      </c>
+      <c r="V44">
+        <v>1.85</v>
+      </c>
+      <c r="W44">
+        <v>1.57</v>
+      </c>
+      <c r="X44">
+        <v>1.37</v>
+      </c>
+      <c r="Y44">
         <v>1.25</v>
       </c>
-      <c r="N44">
-        <v>3.75</v>
-      </c>
-      <c r="O44">
-        <v>1.03</v>
-      </c>
-      <c r="P44">
-        <v>21</v>
-      </c>
-      <c r="Q44">
-        <v>1.09</v>
-      </c>
-      <c r="R44">
-        <v>5.55</v>
-      </c>
-      <c r="S44">
-        <v>1.47</v>
-      </c>
-      <c r="T44">
-        <v>2.5</v>
-      </c>
-      <c r="U44">
-        <v>1.44</v>
-      </c>
-      <c r="V44">
-        <v>2.63</v>
-      </c>
-      <c r="W44">
-        <v>1.48</v>
-      </c>
-      <c r="X44">
-        <v>1.3</v>
-      </c>
-      <c r="Y44">
-        <v>1.54</v>
-      </c>
       <c r="Z44">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AA44">
+        <v>1.93</v>
+      </c>
+      <c r="AB44">
         <v>1.33</v>
       </c>
-      <c r="AB44">
-        <v>1.89</v>
-      </c>
       <c r="AC44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD44">
-        <v>3.39</v>
+        <v>2.73</v>
       </c>
       <c r="AE44">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="AF44">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG44">
+        <v>1.71</v>
+      </c>
+      <c r="AH44">
+        <v>1.25</v>
+      </c>
+      <c r="AI44">
+        <v>3.6</v>
+      </c>
+      <c r="AJ44">
+        <v>1.37</v>
+      </c>
+      <c r="AK44">
+        <v>2.85</v>
+      </c>
+      <c r="AL44">
+        <v>1.7</v>
+      </c>
+      <c r="AM44">
+        <v>2.03</v>
+      </c>
+      <c r="AN44">
         <v>2.15</v>
       </c>
-      <c r="AH44">
-        <v>1.09</v>
-      </c>
-      <c r="AI44">
-        <v>5.65</v>
-      </c>
-      <c r="AJ44">
-        <v>1.21</v>
-      </c>
-      <c r="AK44">
-        <v>3.74</v>
-      </c>
-      <c r="AL44">
-        <v>1.41</v>
-      </c>
-      <c r="AM44">
-        <v>2.69</v>
-      </c>
-      <c r="AN44">
-        <v>1.71</v>
-      </c>
       <c r="AO44">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="AP44">
-        <v>2.12</v>
+        <v>2.85</v>
       </c>
       <c r="AQ44">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2">
         <v>45389</v>
@@ -6921,7 +6921,7 @@
         <v>83</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
@@ -6930,120 +6930,120 @@
         <v>219</v>
       </c>
       <c r="G45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="K45">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="L45">
-        <v>3.87</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AA45">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="AB45">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="AC45">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AD45">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="AE45">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM45">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AN45">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AO45">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
         <v>45389</v>
@@ -7052,7 +7052,7 @@
         <v>83</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
         <v>141</v>
@@ -7061,120 +7061,120 @@
         <v>220</v>
       </c>
       <c r="G46">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="H46">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J46">
-        <v>2.87</v>
+        <v>1.75</v>
       </c>
       <c r="K46">
+        <v>3.4</v>
+      </c>
+      <c r="L46">
+        <v>3.9</v>
+      </c>
+      <c r="M46">
+        <v>1.4</v>
+      </c>
+      <c r="N46">
+        <v>2.7</v>
+      </c>
+      <c r="O46">
+        <v>1.05</v>
+      </c>
+      <c r="P46">
+        <v>8.5</v>
+      </c>
+      <c r="Q46">
+        <v>1.3</v>
+      </c>
+      <c r="R46">
+        <v>3.25</v>
+      </c>
+      <c r="S46">
+        <v>2.02</v>
+      </c>
+      <c r="T46">
+        <v>1.8</v>
+      </c>
+      <c r="U46">
+        <v>1.8</v>
+      </c>
+      <c r="V46">
+        <v>1.83</v>
+      </c>
+      <c r="W46">
+        <v>1.18</v>
+      </c>
+      <c r="X46">
+        <v>1.25</v>
+      </c>
+      <c r="Y46">
+        <v>1.9</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>0.47</v>
+      </c>
+      <c r="AB46">
+        <v>1.55</v>
+      </c>
+      <c r="AC46">
+        <v>1.25</v>
+      </c>
+      <c r="AD46">
+        <v>2.8</v>
+      </c>
+      <c r="AE46">
+        <v>1.3</v>
+      </c>
+      <c r="AF46">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG46">
+        <v>4.05</v>
+      </c>
+      <c r="AH46">
+        <v>1.26</v>
+      </c>
+      <c r="AI46">
+        <v>3.34</v>
+      </c>
+      <c r="AJ46">
+        <v>1.48</v>
+      </c>
+      <c r="AK46">
+        <v>2.4</v>
+      </c>
+      <c r="AL46">
+        <v>1.83</v>
+      </c>
+      <c r="AM46">
+        <v>1.83</v>
+      </c>
+      <c r="AN46">
+        <v>2.38</v>
+      </c>
+      <c r="AO46">
+        <v>1.49</v>
+      </c>
+      <c r="AP46">
         <v>3.2</v>
       </c>
-      <c r="L46">
-        <v>2.18</v>
-      </c>
-      <c r="M46">
-        <v>1.45</v>
-      </c>
-      <c r="N46">
-        <v>2.75</v>
-      </c>
-      <c r="O46">
-        <v>1.08</v>
-      </c>
-      <c r="P46">
-        <v>6.5</v>
-      </c>
-      <c r="Q46">
-        <v>1.35</v>
-      </c>
-      <c r="R46">
-        <v>2.9</v>
-      </c>
-      <c r="S46">
-        <v>2.1</v>
-      </c>
-      <c r="T46">
-        <v>1.6</v>
-      </c>
-      <c r="U46">
-        <v>1.83</v>
-      </c>
-      <c r="V46">
-        <v>1.85</v>
-      </c>
-      <c r="W46">
-        <v>1.57</v>
-      </c>
-      <c r="X46">
-        <v>1.37</v>
-      </c>
-      <c r="Y46">
-        <v>1.25</v>
-      </c>
-      <c r="Z46">
-        <v>1.62</v>
-      </c>
-      <c r="AA46">
-        <v>2</v>
-      </c>
-      <c r="AB46">
-        <v>1.33</v>
-      </c>
-      <c r="AC46">
-        <v>1.4</v>
-      </c>
-      <c r="AD46">
-        <v>2.73</v>
-      </c>
-      <c r="AE46">
-        <v>2.44</v>
-      </c>
-      <c r="AF46">
-        <v>9</v>
-      </c>
-      <c r="AG46">
-        <v>1.71</v>
-      </c>
-      <c r="AH46">
-        <v>1.25</v>
-      </c>
-      <c r="AI46">
-        <v>3.6</v>
-      </c>
-      <c r="AJ46">
-        <v>1.37</v>
-      </c>
-      <c r="AK46">
-        <v>2.85</v>
-      </c>
-      <c r="AL46">
-        <v>1.7</v>
-      </c>
-      <c r="AM46">
-        <v>2.03</v>
-      </c>
-      <c r="AN46">
-        <v>2.15</v>
-      </c>
-      <c r="AO46">
-        <v>1.62</v>
-      </c>
-      <c r="AP46">
-        <v>2.85</v>
-      </c>
       <c r="AQ46">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2">
         <v>45389</v>
@@ -7183,7 +7183,7 @@
         <v>83</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
         <v>142</v>
@@ -7192,120 +7192,120 @@
         <v>221</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H47">
+        <v>2.4</v>
+      </c>
+      <c r="I47">
+        <v>3.1</v>
+      </c>
+      <c r="J47">
+        <v>2.38</v>
+      </c>
+      <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>2.6</v>
+      </c>
+      <c r="M47">
+        <v>1.25</v>
+      </c>
+      <c r="N47">
+        <v>3.75</v>
+      </c>
+      <c r="O47">
+        <v>1.03</v>
+      </c>
+      <c r="P47">
+        <v>21</v>
+      </c>
+      <c r="Q47">
+        <v>1.09</v>
+      </c>
+      <c r="R47">
+        <v>5.55</v>
+      </c>
+      <c r="S47">
+        <v>1.47</v>
+      </c>
+      <c r="T47">
+        <v>2.5</v>
+      </c>
+      <c r="U47">
+        <v>1.44</v>
+      </c>
+      <c r="V47">
         <v>2.63</v>
       </c>
-      <c r="I47">
-        <v>2.2</v>
-      </c>
-      <c r="J47">
-        <v>3.85</v>
-      </c>
-      <c r="K47">
-        <v>4.4</v>
-      </c>
-      <c r="L47">
-        <v>1.81</v>
-      </c>
-      <c r="M47">
-        <v>1.2</v>
-      </c>
-      <c r="N47">
-        <v>4.33</v>
-      </c>
-      <c r="O47">
-        <v>1.01</v>
-      </c>
-      <c r="P47">
-        <v>26</v>
-      </c>
-      <c r="Q47">
-        <v>1.08</v>
-      </c>
-      <c r="R47">
-        <v>6.1</v>
-      </c>
-      <c r="S47">
-        <v>1.62</v>
-      </c>
-      <c r="T47">
-        <v>2.11</v>
-      </c>
-      <c r="U47">
-        <v>1.4</v>
-      </c>
-      <c r="V47">
-        <v>2.75</v>
-      </c>
       <c r="W47">
-        <v>2.21</v>
+        <v>1.48</v>
       </c>
       <c r="X47">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="Y47">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Z47">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="AA47">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AB47">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AC47">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AD47">
-        <v>3.23</v>
+        <v>3.39</v>
       </c>
       <c r="AE47">
-        <v>2.65</v>
+        <v>1.85</v>
       </c>
       <c r="AF47">
         <v>8.5</v>
       </c>
       <c r="AG47">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="AH47">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AI47">
-        <v>5.4</v>
+        <v>5.65</v>
       </c>
       <c r="AJ47">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AK47">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="AL47">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AM47">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AN47">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AO47">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AP47">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AQ47">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>45389</v>
@@ -7314,7 +7314,7 @@
         <v>83</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
         <v>143</v>
@@ -7323,115 +7323,115 @@
         <v>222</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J48">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S48">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
         <v>1.91</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Z48">
-        <v>0.92</v>
+        <v>1.94</v>
       </c>
       <c r="AA48">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB48">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AC48">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="AD48">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7466,10 +7466,10 @@
         <v>1.8</v>
       </c>
       <c r="K49">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="L49">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="M49">
         <v>1.47</v>
@@ -7490,10 +7490,10 @@
         <v>2.84</v>
       </c>
       <c r="S49">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T49">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U49">
         <v>1.87</v>
@@ -7511,10 +7511,10 @@
         <v>1.69</v>
       </c>
       <c r="Z49">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AA49">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AB49">
         <v>1.83</v>
@@ -7642,10 +7642,10 @@
         <v>2.2</v>
       </c>
       <c r="Z50">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AA50">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AB50">
         <v>1.98</v>
@@ -7657,19 +7657,19 @@
         <v>3.33</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ50">
         <v>1.29</v>
@@ -7725,13 +7725,13 @@
         <v>2.6</v>
       </c>
       <c r="J51">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K51">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M51">
         <v>1.33</v>
@@ -7752,10 +7752,10 @@
         <v>4.4</v>
       </c>
       <c r="S51">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T51">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U51">
         <v>1.62</v>
@@ -7773,10 +7773,10 @@
         <v>1.3</v>
       </c>
       <c r="Z51">
+        <v>0.73</v>
+      </c>
+      <c r="AA51">
         <v>0.57</v>
-      </c>
-      <c r="AA51">
-        <v>0.62</v>
       </c>
       <c r="AB51">
         <v>1.27</v>
@@ -7856,13 +7856,13 @@
         <v>5.5</v>
       </c>
       <c r="J52">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="K52">
         <v>4.1</v>
       </c>
       <c r="L52">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
         <v>1.33</v>
@@ -7883,10 +7883,10 @@
         <v>4</v>
       </c>
       <c r="S52">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T52">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U52">
         <v>1.8</v>
@@ -7904,10 +7904,10 @@
         <v>2.4</v>
       </c>
       <c r="Z52">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AA52">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AB52">
         <v>1.78</v>
@@ -8035,10 +8035,10 @@
         <v>3.8</v>
       </c>
       <c r="Z53">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AA53">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AB53">
         <v>1.92</v>
@@ -8118,13 +8118,13 @@
         <v>4.33</v>
       </c>
       <c r="J54">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="K54">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
         <v>1.29</v>
@@ -8145,10 +8145,10 @@
         <v>4.5</v>
       </c>
       <c r="S54">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="T54">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="U54">
         <v>1.53</v>
@@ -8166,10 +8166,10 @@
         <v>2</v>
       </c>
       <c r="Z54">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AA54">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AB54">
         <v>1.74</v>
@@ -8249,13 +8249,13 @@
         <v>4</v>
       </c>
       <c r="J55">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="K55">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M55">
         <v>1.33</v>
@@ -8276,10 +8276,10 @@
         <v>4.2</v>
       </c>
       <c r="S55">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T55">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U55">
         <v>1.62</v>
@@ -8297,10 +8297,10 @@
         <v>1.88</v>
       </c>
       <c r="Z55">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AA55">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AB55">
         <v>1.9</v>
@@ -8380,13 +8380,13 @@
         <v>4</v>
       </c>
       <c r="J56">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="K56">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
         <v>1.3</v>
@@ -8407,10 +8407,10 @@
         <v>4.5</v>
       </c>
       <c r="S56">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="T56">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="U56">
         <v>1.57</v>
@@ -8428,10 +8428,10 @@
         <v>1.9</v>
       </c>
       <c r="Z56">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AA56">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AB56">
         <v>1.4</v>
@@ -8511,13 +8511,13 @@
         <v>4</v>
       </c>
       <c r="J57">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="K57">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
         <v>1.35</v>
@@ -8538,10 +8538,10 @@
         <v>3.56</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T57">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="U57">
         <v>1.69</v>
@@ -8559,10 +8559,10 @@
         <v>1.89</v>
       </c>
       <c r="Z57">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AB57">
         <v>1.66</v>
@@ -8642,13 +8642,13 @@
         <v>3.6</v>
       </c>
       <c r="J58">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="K58">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L58">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
       <c r="M58">
         <v>1.57</v>
@@ -8666,13 +8666,13 @@
         <v>1.5</v>
       </c>
       <c r="R58">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S58">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T58">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U58">
         <v>2.1</v>
@@ -8690,10 +8690,10 @@
         <v>1.48</v>
       </c>
       <c r="Z58">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AA58">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AB58">
         <v>1.35</v>
@@ -8773,13 +8773,13 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K59">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="M59">
         <v>1.44</v>
@@ -8800,10 +8800,10 @@
         <v>3.2</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="T59">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U59">
         <v>1.8</v>
@@ -8821,10 +8821,10 @@
         <v>1.35</v>
       </c>
       <c r="Z59">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AA59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AB59">
         <v>1.52</v>
@@ -8910,7 +8910,7 @@
         <v>5</v>
       </c>
       <c r="L60">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M60">
         <v>1.24</v>
@@ -8952,7 +8952,7 @@
         <v>3.3</v>
       </c>
       <c r="Z60">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="AA60">
         <v>1.08</v>
@@ -8976,10 +8976,10 @@
         <v>4.5</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI60">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AJ60">
         <v>1.24</v>
@@ -9035,13 +9035,13 @@
         <v>2.3</v>
       </c>
       <c r="J61">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="K61">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="L61">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M61">
         <v>1.33</v>
@@ -9062,10 +9062,10 @@
         <v>4</v>
       </c>
       <c r="S61">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="T61">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="U61">
         <v>1.75</v>
@@ -9083,10 +9083,10 @@
         <v>1.2</v>
       </c>
       <c r="Z61">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AA61">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AB61">
         <v>1.44</v>
@@ -9166,13 +9166,13 @@
         <v>4.33</v>
       </c>
       <c r="J62">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="K62">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L62">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
         <v>1.33</v>
@@ -9193,10 +9193,10 @@
         <v>3.75</v>
       </c>
       <c r="S62">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T62">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U62">
         <v>1.7</v>
@@ -9214,10 +9214,10 @@
         <v>1.9</v>
       </c>
       <c r="Z62">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AA62">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AB62">
         <v>1.85</v>
@@ -9297,13 +9297,13 @@
         <v>2.75</v>
       </c>
       <c r="J63">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K63">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L63">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="M63">
         <v>1.44</v>
@@ -9324,10 +9324,10 @@
         <v>2.93</v>
       </c>
       <c r="S63">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="T63">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U63">
         <v>1.95</v>
@@ -9345,10 +9345,10 @@
         <v>1.28</v>
       </c>
       <c r="Z63">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AA63">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AB63">
         <v>1.73</v>
@@ -9428,13 +9428,13 @@
         <v>4</v>
       </c>
       <c r="J64">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="K64">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L64">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>1.57</v>
@@ -9455,10 +9455,10 @@
         <v>2.5</v>
       </c>
       <c r="S64">
-        <v>2.22</v>
+        <v>2.65</v>
       </c>
       <c r="T64">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="U64">
         <v>2.1</v>
@@ -9476,10 +9476,10 @@
         <v>1.45</v>
       </c>
       <c r="Z64">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AA64">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AB64">
         <v>1.36</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2">
         <v>45389</v>
@@ -9541,7 +9541,7 @@
         <v>89</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
         <v>160</v>
@@ -9550,120 +9550,120 @@
         <v>239</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H65">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="I65">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>6.9</v>
+        <v>1.69</v>
       </c>
       <c r="K65">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>1.41</v>
+        <v>4.3</v>
       </c>
       <c r="M65">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O65">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P65">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Q65">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="R65">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="S65">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="T65">
-        <v>2.45</v>
+        <v>1.59</v>
       </c>
       <c r="U65">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W65">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="X65">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z65">
-        <v>0.6</v>
+        <v>2.12</v>
       </c>
       <c r="AA65">
-        <v>1.29</v>
+        <v>0.47</v>
       </c>
       <c r="AB65">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AC65">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AD65">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="AE65">
-        <v>3.5</v>
+        <v>1.54</v>
       </c>
       <c r="AF65">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG65">
-        <v>1.42</v>
+        <v>3.08</v>
       </c>
       <c r="AH65">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AI65">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="AJ65">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AK65">
-        <v>2.55</v>
+        <v>2.11</v>
       </c>
       <c r="AL65">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="AM65">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="AN65">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="AO65">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AP65">
-        <v>2.75</v>
+        <v>3.92</v>
       </c>
       <c r="AQ65">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>45389</v>
@@ -9672,7 +9672,7 @@
         <v>89</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
         <v>161</v>
@@ -9681,115 +9681,115 @@
         <v>240</v>
       </c>
       <c r="G66">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="J66">
-        <v>1.81</v>
+        <v>6</v>
       </c>
       <c r="K66">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="L66">
-        <v>4.05</v>
+        <v>1.49</v>
       </c>
       <c r="M66">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>1.01</v>
+      </c>
+      <c r="P66">
+        <v>24</v>
+      </c>
+      <c r="Q66">
+        <v>1.13</v>
+      </c>
+      <c r="R66">
+        <v>6.4</v>
+      </c>
+      <c r="S66">
+        <v>1.39</v>
+      </c>
+      <c r="T66">
+        <v>2.86</v>
+      </c>
+      <c r="U66">
+        <v>1.62</v>
+      </c>
+      <c r="V66">
+        <v>2.2</v>
+      </c>
+      <c r="W66">
+        <v>3</v>
+      </c>
+      <c r="X66">
+        <v>1.16</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>0.63</v>
+      </c>
+      <c r="AA66">
+        <v>1.27</v>
+      </c>
+      <c r="AB66">
+        <v>1.1</v>
+      </c>
+      <c r="AC66">
+        <v>1.46</v>
+      </c>
+      <c r="AD66">
+        <v>2.56</v>
+      </c>
+      <c r="AE66">
+        <v>3.5</v>
+      </c>
+      <c r="AF66">
+        <v>8.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.42</v>
+      </c>
+      <c r="AH66">
+        <v>1.22</v>
+      </c>
+      <c r="AI66">
+        <v>3.5</v>
+      </c>
+      <c r="AJ66">
+        <v>1.42</v>
+      </c>
+      <c r="AK66">
         <v>2.55</v>
       </c>
-      <c r="O66">
-        <v>1.07</v>
-      </c>
-      <c r="P66">
-        <v>8</v>
-      </c>
-      <c r="Q66">
-        <v>1.38</v>
-      </c>
-      <c r="R66">
-        <v>3</v>
-      </c>
-      <c r="S66">
-        <v>2.04</v>
-      </c>
-      <c r="T66">
-        <v>1.82</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
+      <c r="AL66">
         <v>1.73</v>
       </c>
-      <c r="W66">
-        <v>1.17</v>
-      </c>
-      <c r="X66">
-        <v>1.25</v>
-      </c>
-      <c r="Y66">
-        <v>2.05</v>
-      </c>
-      <c r="Z66">
-        <v>2.06</v>
-      </c>
-      <c r="AA66">
-        <v>0.5</v>
-      </c>
-      <c r="AB66">
-        <v>1.49</v>
-      </c>
-      <c r="AC66">
-        <v>1.27</v>
-      </c>
-      <c r="AD66">
-        <v>2.76</v>
-      </c>
-      <c r="AE66">
-        <v>1.54</v>
-      </c>
-      <c r="AF66">
-        <v>9</v>
-      </c>
-      <c r="AG66">
-        <v>3.08</v>
-      </c>
-      <c r="AH66">
+      <c r="AM66">
+        <v>1.97</v>
+      </c>
+      <c r="AN66">
+        <v>2.16</v>
+      </c>
+      <c r="AO66">
+        <v>1.58</v>
+      </c>
+      <c r="AP66">
+        <v>2.75</v>
+      </c>
+      <c r="AQ66">
         <v>1.35</v>
-      </c>
-      <c r="AI66">
-        <v>2.84</v>
-      </c>
-      <c r="AJ66">
-        <v>1.65</v>
-      </c>
-      <c r="AK66">
-        <v>2.11</v>
-      </c>
-      <c r="AL66">
-        <v>2.13</v>
-      </c>
-      <c r="AM66">
-        <v>1.67</v>
-      </c>
-      <c r="AN66">
-        <v>2.8</v>
-      </c>
-      <c r="AO66">
-        <v>1.38</v>
-      </c>
-      <c r="AP66">
-        <v>3.92</v>
-      </c>
-      <c r="AQ66">
-        <v>1.19</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -9821,13 +9821,13 @@
         <v>6</v>
       </c>
       <c r="J67">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="K67">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L67">
-        <v>6.7</v>
+        <v>7.75</v>
       </c>
       <c r="M67">
         <v>1.22</v>
@@ -9848,10 +9848,10 @@
         <v>6.2</v>
       </c>
       <c r="S67">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T67">
-        <v>2.3</v>
+        <v>2.82</v>
       </c>
       <c r="U67">
         <v>1.62</v>
@@ -9869,10 +9869,10 @@
         <v>3.1</v>
       </c>
       <c r="Z67">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AB67">
         <v>1.97</v>
@@ -9952,13 +9952,13 @@
         <v>3.03</v>
       </c>
       <c r="J68">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="K68">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L68">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="M68">
         <v>1.36</v>
@@ -9979,10 +9979,10 @@
         <v>3.4</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T68">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U68">
         <v>1.6</v>
@@ -10000,10 +10000,10 @@
         <v>1.37</v>
       </c>
       <c r="Z68">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AB68">
         <v>1.44</v>
@@ -10015,13 +10015,13 @@
         <v>2.87</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG68">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH68">
         <v>1.17</v>
@@ -10086,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L69">
         <v>3.7</v>
@@ -10110,10 +10110,10 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="T69">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -10131,10 +10131,10 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA69">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AB69">
         <v>1.13</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
         <v>45389</v>
@@ -10196,7 +10196,7 @@
         <v>91</v>
       </c>
       <c r="D70">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
         <v>165</v>
@@ -10205,120 +10205,120 @@
         <v>244</v>
       </c>
       <c r="G70">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="H70">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="I70">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="J70">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="K70">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="L70">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="M70">
+        <v>1.29</v>
+      </c>
+      <c r="N70">
+        <v>3.45</v>
+      </c>
+      <c r="O70">
+        <v>1.04</v>
+      </c>
+      <c r="P70">
+        <v>10</v>
+      </c>
+      <c r="Q70">
+        <v>1.22</v>
+      </c>
+      <c r="R70">
+        <v>4.2</v>
+      </c>
+      <c r="S70">
+        <v>1.68</v>
+      </c>
+      <c r="T70">
+        <v>2.05</v>
+      </c>
+      <c r="U70">
+        <v>1.6</v>
+      </c>
+      <c r="V70">
+        <v>2.28</v>
+      </c>
+      <c r="W70">
+        <v>1.94</v>
+      </c>
+      <c r="X70">
         <v>1.28</v>
       </c>
-      <c r="N70">
-        <v>3.48</v>
-      </c>
-      <c r="O70">
-        <v>1.02</v>
-      </c>
-      <c r="P70">
-        <v>18</v>
-      </c>
-      <c r="Q70">
-        <v>1.17</v>
-      </c>
-      <c r="R70">
-        <v>4.75</v>
-      </c>
-      <c r="S70">
-        <v>1.55</v>
-      </c>
-      <c r="T70">
-        <v>2.29</v>
-      </c>
-      <c r="U70">
-        <v>2.4</v>
-      </c>
-      <c r="V70">
-        <v>1.53</v>
-      </c>
-      <c r="W70">
-        <v>4.2</v>
-      </c>
-      <c r="X70">
+      <c r="Y70">
+        <v>1.27</v>
+      </c>
+      <c r="Z70">
         <v>1.06</v>
       </c>
-      <c r="Y70">
-        <v>1.01</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
       <c r="AA70">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="AB70">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AC70">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD70">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG70">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK70">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN70">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO70">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP70">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="71" spans="1:43">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2">
         <v>45389</v>
@@ -10327,7 +10327,7 @@
         <v>91</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
         <v>166</v>
@@ -10336,120 +10336,120 @@
         <v>245</v>
       </c>
       <c r="G71">
-        <v>4.1</v>
+        <v>11</v>
       </c>
       <c r="H71">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="I71">
+        <v>1.62</v>
+      </c>
+      <c r="J71">
+        <v>14.5</v>
+      </c>
+      <c r="K71">
+        <v>6.75</v>
+      </c>
+      <c r="L71">
+        <v>1.16</v>
+      </c>
+      <c r="M71">
+        <v>1.28</v>
+      </c>
+      <c r="N71">
+        <v>3.48</v>
+      </c>
+      <c r="O71">
+        <v>1.02</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71">
+        <v>1.17</v>
+      </c>
+      <c r="R71">
+        <v>4.75</v>
+      </c>
+      <c r="S71">
+        <v>1.6</v>
+      </c>
+      <c r="T71">
+        <v>2.2</v>
+      </c>
+      <c r="U71">
         <v>2.4</v>
       </c>
-      <c r="J71">
-        <v>3.45</v>
-      </c>
-      <c r="K71">
-        <v>3.75</v>
-      </c>
-      <c r="L71">
-        <v>1.9</v>
-      </c>
-      <c r="M71">
-        <v>1.29</v>
-      </c>
-      <c r="N71">
-        <v>3.45</v>
-      </c>
-      <c r="O71">
-        <v>1.04</v>
-      </c>
-      <c r="P71">
-        <v>10</v>
-      </c>
-      <c r="Q71">
-        <v>1.22</v>
-      </c>
-      <c r="R71">
+      <c r="V71">
+        <v>1.53</v>
+      </c>
+      <c r="W71">
         <v>4.2</v>
       </c>
-      <c r="S71">
-        <v>1.7</v>
-      </c>
-      <c r="T71">
-        <v>2.15</v>
-      </c>
-      <c r="U71">
-        <v>1.6</v>
-      </c>
-      <c r="V71">
-        <v>2.28</v>
-      </c>
-      <c r="W71">
-        <v>1.94</v>
-      </c>
       <c r="X71">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="Y71">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="Z71">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AA71">
-        <v>1.33</v>
+        <v>2.38</v>
       </c>
       <c r="AB71">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AC71">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD71">
-        <v>2.92</v>
+        <v>3.24</v>
       </c>
       <c r="AE71">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AF71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG71">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AH71">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ71">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AK71">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AL71">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AM71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN71">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AO71">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AQ71">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:43">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2">
         <v>45389</v>
@@ -10458,7 +10458,7 @@
         <v>92</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
         <v>167</v>
@@ -10467,22 +10467,22 @@
         <v>246</v>
       </c>
       <c r="G72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H72">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I72">
+        <v>4.5</v>
+      </c>
+      <c r="J72">
+        <v>1.75</v>
+      </c>
+      <c r="K72">
+        <v>3.3</v>
+      </c>
+      <c r="L72">
         <v>4</v>
-      </c>
-      <c r="J72">
-        <v>1.84</v>
-      </c>
-      <c r="K72">
-        <v>3.6</v>
-      </c>
-      <c r="L72">
-        <v>3.6</v>
       </c>
       <c r="M72">
         <v>1.4</v>
@@ -10494,93 +10494,93 @@
         <v>1.02</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="Q72">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="R72">
         <v>3.5</v>
       </c>
       <c r="S72">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="T72">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="U72">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X72">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y72">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Z72">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="AA72">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AB72">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="AC72">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AD72">
-        <v>3.3</v>
+        <v>3.59</v>
       </c>
       <c r="AE72">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AF72">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AG72">
-        <v>2.31</v>
+        <v>3.04</v>
       </c>
       <c r="AH72">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI72">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="AJ72">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AK72">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="AL72">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="AM72">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AN72">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="AO72">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AP72">
-        <v>2.98</v>
+        <v>3.74</v>
       </c>
       <c r="AQ72">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B73" s="2">
         <v>45389</v>
@@ -10589,7 +10589,7 @@
         <v>92</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
         <v>168</v>
@@ -10598,22 +10598,22 @@
         <v>247</v>
       </c>
       <c r="G73">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H73">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I73">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -10625,88 +10625,88 @@
         <v>1.02</v>
       </c>
       <c r="P73">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="Q73">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="R73">
         <v>3.5</v>
       </c>
       <c r="S73">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y73">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="Z73">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="AA73">
-        <v>2.21</v>
+        <v>1.53</v>
       </c>
       <c r="AB73">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="AC73">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AD73">
-        <v>3.59</v>
+        <v>3.3</v>
       </c>
       <c r="AE73">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="AF73">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG73">
-        <v>3.04</v>
+        <v>2.31</v>
       </c>
       <c r="AH73">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI73">
-        <v>2.93</v>
+        <v>2.78</v>
       </c>
       <c r="AJ73">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AK73">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="AL73">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AM73">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AN73">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="AO73">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AP73">
-        <v>3.74</v>
+        <v>2.98</v>
       </c>
       <c r="AQ73">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="74" spans="1:43">
@@ -10786,10 +10786,10 @@
         <v>1.77</v>
       </c>
       <c r="Z74">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AA74">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AB74">
         <v>2.14</v>
@@ -10869,13 +10869,13 @@
         <v>3.2</v>
       </c>
       <c r="J75">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="K75">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L75">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="M75">
         <v>1.35</v>
@@ -10896,10 +10896,10 @@
         <v>3.9</v>
       </c>
       <c r="S75">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="T75">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U75">
         <v>1.55</v>
@@ -10917,10 +10917,10 @@
         <v>1.52</v>
       </c>
       <c r="Z75">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA75">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AB75">
         <v>1.64</v>
@@ -11000,13 +11000,13 @@
         <v>7</v>
       </c>
       <c r="J76">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="K76">
-        <v>4.87</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
-        <v>7.66</v>
+        <v>6.5</v>
       </c>
       <c r="M76">
         <v>1.25</v>
@@ -11027,10 +11027,10 @@
         <v>4.9</v>
       </c>
       <c r="S76">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U76">
         <v>1.77</v>
@@ -11048,10 +11048,10 @@
         <v>3.25</v>
       </c>
       <c r="Z76">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AA76">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB76">
         <v>2.07</v>
@@ -11131,13 +11131,13 @@
         <v>3</v>
       </c>
       <c r="J77">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L77">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="M77">
         <v>1.44</v>
@@ -11158,10 +11158,10 @@
         <v>3.23</v>
       </c>
       <c r="S77">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U77">
         <v>1.8</v>
@@ -11179,10 +11179,10 @@
         <v>1.36</v>
       </c>
       <c r="Z77">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AA77">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AB77">
         <v>1.39</v>
@@ -11262,13 +11262,13 @@
         <v>5</v>
       </c>
       <c r="J78">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="K78">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L78">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M78">
         <v>1.44</v>
@@ -11289,10 +11289,10 @@
         <v>3.25</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T78">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -11310,10 +11310,10 @@
         <v>2</v>
       </c>
       <c r="Z78">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AA78">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AB78">
         <v>1.53</v>
@@ -11393,13 +11393,13 @@
         <v>2.8</v>
       </c>
       <c r="J79">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K79">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L79">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="M79">
         <v>1.59</v>
@@ -11414,16 +11414,16 @@
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R79">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="S79">
         <v>2.48</v>
       </c>
       <c r="T79">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U79">
         <v>2.3</v>
@@ -11441,10 +11441,10 @@
         <v>1.25</v>
       </c>
       <c r="Z79">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AA79">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AB79">
         <v>1.3</v>
@@ -11527,10 +11527,10 @@
         <v>1.33</v>
       </c>
       <c r="K80">
-        <v>4.95</v>
+        <v>4.5</v>
       </c>
       <c r="L80">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -11551,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="T80">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="U80">
         <v>0</v>
